--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_7_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3274054.989269977</v>
+        <v>-3274815.83654499</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>5.79021388715344</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.08407736769427</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,23 +859,23 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>13.08407736769427</v>
+      </c>
+      <c r="R4" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.790213887153438</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>13.08407736769427</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>13.08407736769427</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="S6" t="n">
         <v>14.85476540383092</v>
@@ -1032,10 +1032,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="V6" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D8" t="n">
-        <v>54.19701966463789</v>
+        <v>24.92882890167885</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.58810603624125</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="S9" t="n">
         <v>54.19701966463789</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="10">
@@ -1291,73 +1291,73 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
+        <v>16.32206764769464</v>
+      </c>
+      <c r="V10" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="T10" t="n">
-        <v>16.32206764769464</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>261.8108608802111</v>
       </c>
       <c r="C11" t="n">
-        <v>52.60181150818943</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>211.0839992191036</v>
       </c>
       <c r="I11" t="n">
-        <v>63.91553421224361</v>
+        <v>63.91553421224358</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.49060086636553</v>
+        <v>72.49060086636547</v>
       </c>
       <c r="T11" t="n">
         <v>98.85640057484385</v>
       </c>
       <c r="U11" t="n">
-        <v>129.5319509814471</v>
+        <v>129.5319509814469</v>
       </c>
       <c r="V11" t="n">
-        <v>206.6276724113354</v>
+        <v>206.6276724113353</v>
       </c>
       <c r="W11" t="n">
         <v>228.6245678893706</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9560500199854</v>
+        <v>90.47386230907151</v>
       </c>
       <c r="Y11" t="n">
         <v>264.7815226400518</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.46657649916087</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>58.94929856854543</v>
+        <v>49.12003481621699</v>
       </c>
       <c r="D12" t="n">
-        <v>24.2068744634616</v>
+        <v>24.20687446346156</v>
       </c>
       <c r="E12" t="n">
-        <v>34.12788459598987</v>
+        <v>34.12788459598983</v>
       </c>
       <c r="F12" t="n">
-        <v>21.60068297236533</v>
+        <v>21.60068297236529</v>
       </c>
       <c r="G12" t="n">
-        <v>13.848375304925</v>
+        <v>13.84837530492496</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>224.6394608968766</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>119.8324456807999</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.5560804972943</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.76560230740202</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.17814237949985</v>
+        <v>58.1781423794998</v>
       </c>
       <c r="C13" t="n">
-        <v>45.43100382001838</v>
+        <v>45.43100382001833</v>
       </c>
       <c r="D13" t="n">
-        <v>27.1000174033354</v>
+        <v>27.10001740333536</v>
       </c>
       <c r="E13" t="n">
-        <v>25.06907506201522</v>
+        <v>25.06907506201517</v>
       </c>
       <c r="F13" t="n">
-        <v>24.25347229862054</v>
+        <v>24.25347229862049</v>
       </c>
       <c r="G13" t="n">
-        <v>45.7582796593783</v>
+        <v>45.75827965937826</v>
       </c>
       <c r="H13" t="n">
-        <v>37.72130984286203</v>
+        <v>37.72130984286199</v>
       </c>
       <c r="I13" t="n">
-        <v>7.126075813870437</v>
+        <v>7.126075813871394</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.33460083938439</v>
+        <v>41.33460083938443</v>
       </c>
       <c r="S13" t="n">
-        <v>96.51747397888131</v>
+        <v>96.51747397888127</v>
       </c>
       <c r="T13" t="n">
         <v>105.4623052895371</v>
       </c>
       <c r="U13" t="n">
-        <v>164.1344070893594</v>
+        <v>164.1344070893595</v>
       </c>
       <c r="V13" t="n">
         <v>131.0308019557552</v>
       </c>
       <c r="W13" t="n">
-        <v>164.1870277762316</v>
+        <v>164.1870277762315</v>
       </c>
       <c r="X13" t="n">
         <v>104.2348108211253</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.84312475658426</v>
+        <v>96.84312475658422</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.810860880211</v>
+        <v>103.328673169297</v>
       </c>
       <c r="C14" t="n">
-        <v>52.60181150818983</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>211.0839992191036</v>
       </c>
       <c r="I14" t="n">
-        <v>63.91553421224356</v>
+        <v>63.9155342122436</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.49060086636547</v>
+        <v>72.49060086636548</v>
       </c>
       <c r="T14" t="n">
-        <v>98.85640057484379</v>
+        <v>98.85640057484383</v>
       </c>
       <c r="U14" t="n">
-        <v>129.5319509814469</v>
+        <v>129.5319509814471</v>
       </c>
       <c r="V14" t="n">
-        <v>206.6276724113353</v>
+        <v>206.6276724113354</v>
       </c>
       <c r="W14" t="n">
         <v>228.6245678893706</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.46657649916081</v>
+        <v>43.46657649916085</v>
       </c>
       <c r="C15" t="n">
-        <v>49.12003481621697</v>
+        <v>49.12003481621701</v>
       </c>
       <c r="D15" t="n">
-        <v>24.20687446346155</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>43.95714834831859</v>
+        <v>34.12788459598985</v>
       </c>
       <c r="F15" t="n">
-        <v>21.60068297236528</v>
+        <v>21.60068297236532</v>
       </c>
       <c r="G15" t="n">
-        <v>13.84837530492494</v>
+        <v>13.84837530492498</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>77.97563928679011</v>
       </c>
       <c r="S15" t="n">
-        <v>163.9597484840094</v>
+        <v>51.8834631251539</v>
       </c>
       <c r="T15" t="n">
         <v>197.2971212063838</v>
@@ -1743,13 +1743,13 @@
         <v>224.6394608968766</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>110.0031819284712</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.55608049729425</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.17814237949979</v>
+        <v>58.17814237949983</v>
       </c>
       <c r="C16" t="n">
-        <v>45.43100382001832</v>
+        <v>45.43100382001836</v>
       </c>
       <c r="D16" t="n">
-        <v>27.10001740333534</v>
+        <v>27.10001740333539</v>
       </c>
       <c r="E16" t="n">
-        <v>25.06907506201516</v>
+        <v>25.0690750620152</v>
       </c>
       <c r="F16" t="n">
-        <v>6.31577413334048</v>
+        <v>24.25347229862052</v>
       </c>
       <c r="G16" t="n">
-        <v>45.75827965937825</v>
+        <v>45.75827965937829</v>
       </c>
       <c r="H16" t="n">
-        <v>37.721309842862</v>
+        <v>37.72130984286202</v>
       </c>
       <c r="I16" t="n">
-        <v>25.06377397915137</v>
+        <v>7.12607581387107</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.33460083938442</v>
+        <v>41.33460083938446</v>
       </c>
       <c r="S16" t="n">
-        <v>96.51747397888126</v>
+        <v>96.5174739788813</v>
       </c>
       <c r="T16" t="n">
-        <v>105.462305289537</v>
+        <v>105.4623052895371</v>
       </c>
       <c r="U16" t="n">
-        <v>164.1344070893595</v>
+        <v>164.1344070893596</v>
       </c>
       <c r="V16" t="n">
-        <v>131.0308019557551</v>
+        <v>131.0308019557552</v>
       </c>
       <c r="W16" t="n">
-        <v>164.1870277762315</v>
+        <v>164.1870277762316</v>
       </c>
       <c r="X16" t="n">
-        <v>104.2348108211252</v>
+        <v>104.2348108211253</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.8431247565842</v>
+        <v>96.84312475658425</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.3071020447258</v>
+        <v>158.3071020447259</v>
       </c>
       <c r="C17" t="n">
-        <v>141.5757877322733</v>
+        <v>141.5757877322739</v>
       </c>
       <c r="D17" t="n">
-        <v>131.1954248079291</v>
+        <v>131.1954248079292</v>
       </c>
       <c r="E17" t="n">
-        <v>157.7087278086182</v>
+        <v>157.7087278086183</v>
       </c>
       <c r="F17" t="n">
-        <v>181.8845555338715</v>
+        <v>181.8845555338717</v>
       </c>
       <c r="G17" t="n">
-        <v>188.9421639082427</v>
+        <v>188.9421639082428</v>
       </c>
       <c r="H17" t="n">
-        <v>107.5802403836183</v>
+        <v>107.5802403836184</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>26.02819214596222</v>
+        <v>26.02819214596173</v>
       </c>
       <c r="V17" t="n">
-        <v>103.1239135758501</v>
+        <v>103.1239135758502</v>
       </c>
       <c r="W17" t="n">
-        <v>125.1208090538853</v>
+        <v>125.1208090538854</v>
       </c>
       <c r="X17" t="n">
-        <v>145.4522911845001</v>
+        <v>145.4522911845002</v>
       </c>
       <c r="Y17" t="n">
-        <v>161.2777638045665</v>
+        <v>161.2777638045666</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.753924416109</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>224.6394608968766</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>39.1810390346688</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>24.58003880333086</v>
       </c>
       <c r="X18" t="n">
-        <v>44.52714262240004</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.958546454051775</v>
+        <v>1.958546454051889</v>
       </c>
       <c r="U19" t="n">
-        <v>60.63064825387425</v>
+        <v>60.63064825387436</v>
       </c>
       <c r="V19" t="n">
-        <v>27.52704312026987</v>
+        <v>27.52704312026998</v>
       </c>
       <c r="W19" t="n">
-        <v>60.68326894074625</v>
+        <v>60.68326894074636</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7310519856399651</v>
+        <v>0.7310519856400788</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.0870013327971</v>
+        <v>198.0870013327964</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.3071020447258</v>
+        <v>158.3071020447259</v>
       </c>
       <c r="C20" t="n">
-        <v>141.5757877322734</v>
+        <v>141.5757877322735</v>
       </c>
       <c r="D20" t="n">
         <v>131.1954248079292</v>
       </c>
       <c r="E20" t="n">
-        <v>157.7087278086182</v>
+        <v>157.7087278086183</v>
       </c>
       <c r="F20" t="n">
-        <v>181.8845555338716</v>
+        <v>181.8845555338717</v>
       </c>
       <c r="G20" t="n">
         <v>188.9421639082428</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>26.0281921459617</v>
+        <v>26.02819214596173</v>
       </c>
       <c r="V20" t="n">
-        <v>103.1239135758501</v>
+        <v>103.1239135758502</v>
       </c>
       <c r="W20" t="n">
         <v>125.1208090538854</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>77.23208099561693</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>163.9597484840094</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2971212063838</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6394608968766</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>70.43151237798074</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>32.03950589060269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>198.0870013327965</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95854645405186</v>
+        <v>1.958546454051889</v>
       </c>
       <c r="U22" t="n">
-        <v>258.717649586671</v>
+        <v>60.63064825387436</v>
       </c>
       <c r="V22" t="n">
-        <v>27.52704312026995</v>
+        <v>27.52704312026998</v>
       </c>
       <c r="W22" t="n">
-        <v>60.68326894074633</v>
+        <v>60.68326894074636</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7310519856400504</v>
+        <v>0.7310519856400788</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.3071020447258</v>
+        <v>158.3071020447259</v>
       </c>
       <c r="C23" t="n">
-        <v>141.5757877322734</v>
+        <v>141.5757877322735</v>
       </c>
       <c r="D23" t="n">
         <v>131.1954248079292</v>
       </c>
       <c r="E23" t="n">
-        <v>157.7087278086182</v>
+        <v>157.7087278086183</v>
       </c>
       <c r="F23" t="n">
-        <v>181.8845555338716</v>
+        <v>181.8845555338717</v>
       </c>
       <c r="G23" t="n">
         <v>188.9421639082428</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>26.0281921459617</v>
+        <v>26.02819214596244</v>
       </c>
       <c r="V23" t="n">
-        <v>103.1239135758501</v>
+        <v>103.1239135758502</v>
       </c>
       <c r="W23" t="n">
         <v>125.1208090538854</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.8617817184869</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>163.9597484840094</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2971212063838</v>
+        <v>62.07977309325677</v>
       </c>
       <c r="U24" t="n">
         <v>224.6394608968766</v>
       </c>
       <c r="V24" t="n">
-        <v>195.2144727418426</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>24.58003880333084</v>
+        <v>24.58003880333086</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.84685138222804</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95854645405186</v>
+        <v>1.958546454051889</v>
       </c>
       <c r="U25" t="n">
-        <v>95.47749963610252</v>
+        <v>60.63064825387436</v>
       </c>
       <c r="V25" t="n">
-        <v>27.52704312026995</v>
+        <v>27.52704312026998</v>
       </c>
       <c r="W25" t="n">
-        <v>60.68326894074633</v>
+        <v>60.68326894074636</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7310519856400504</v>
+        <v>0.7310519856400788</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>240.3997009228714</v>
+        <v>240.3997009228715</v>
       </c>
       <c r="C26" t="n">
         <v>223.668386610419</v>
@@ -2561,19 +2561,19 @@
         <v>213.2880236860748</v>
       </c>
       <c r="E26" t="n">
-        <v>239.8013266867638</v>
+        <v>239.8013266867639</v>
       </c>
       <c r="F26" t="n">
-        <v>263.9771544120172</v>
+        <v>263.9771544120173</v>
       </c>
       <c r="G26" t="n">
-        <v>271.0347627863884</v>
+        <v>271.0347627863885</v>
       </c>
       <c r="H26" t="n">
         <v>189.672839261764</v>
       </c>
       <c r="I26" t="n">
-        <v>42.50437425490394</v>
+        <v>42.50437425490401</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>51.07944090902559</v>
       </c>
       <c r="T26" t="n">
-        <v>77.4452406175042</v>
+        <v>77.44524061750423</v>
       </c>
       <c r="U26" t="n">
-        <v>108.1207910241081</v>
+        <v>108.1207910241076</v>
       </c>
       <c r="V26" t="n">
-        <v>185.2165124539957</v>
+        <v>185.2165124539958</v>
       </c>
       <c r="W26" t="n">
         <v>207.213407932031</v>
@@ -2634,19 +2634,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.08710700562278</v>
       </c>
       <c r="D27" t="n">
-        <v>2.795714506121953</v>
+        <v>2.795714506121982</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>12.71672463865025</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.753924416109</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>77.97563928679011</v>
       </c>
       <c r="S27" t="n">
-        <v>156.7751959783401</v>
+        <v>163.9597484840094</v>
       </c>
       <c r="T27" t="n">
-        <v>53.98041213786016</v>
+        <v>197.2971212063838</v>
       </c>
       <c r="U27" t="n">
         <v>224.6394608968766</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.7669824221602</v>
+        <v>36.76698242216023</v>
       </c>
       <c r="C28" t="n">
-        <v>24.01984386267873</v>
+        <v>24.01984386267875</v>
       </c>
       <c r="D28" t="n">
-        <v>5.688857445995751</v>
+        <v>5.688857445995779</v>
       </c>
       <c r="E28" t="n">
-        <v>3.657915104675567</v>
+        <v>3.657915104675595</v>
       </c>
       <c r="F28" t="n">
-        <v>2.842312341280888</v>
+        <v>2.842312341280916</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34711970203865</v>
+        <v>24.34711970203868</v>
       </c>
       <c r="H28" t="n">
-        <v>16.31014988552239</v>
+        <v>16.31014988552241</v>
       </c>
       <c r="I28" t="n">
-        <v>3.652614021811783</v>
+        <v>3.652614021811811</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.92344088204483</v>
+        <v>19.92344088204485</v>
       </c>
       <c r="S28" t="n">
-        <v>75.10631402154166</v>
+        <v>75.10631402154169</v>
       </c>
       <c r="T28" t="n">
-        <v>84.05114533219745</v>
+        <v>84.05114533219748</v>
       </c>
       <c r="U28" t="n">
-        <v>142.7232471320199</v>
+        <v>142.72324713202</v>
       </c>
       <c r="V28" t="n">
-        <v>109.6196419984155</v>
+        <v>109.6196419984156</v>
       </c>
       <c r="W28" t="n">
-        <v>142.7758678188919</v>
+        <v>142.775867818892</v>
       </c>
       <c r="X28" t="n">
-        <v>82.82365086378564</v>
+        <v>82.82365086378567</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.43196479924461</v>
+        <v>75.43196479924464</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.3997009228715</v>
+        <v>240.3997009228714</v>
       </c>
       <c r="C29" t="n">
         <v>223.668386610419</v>
@@ -2798,19 +2798,19 @@
         <v>213.2880236860748</v>
       </c>
       <c r="E29" t="n">
-        <v>239.8013266867639</v>
+        <v>239.8013266867638</v>
       </c>
       <c r="F29" t="n">
-        <v>263.9771544120173</v>
+        <v>263.9771544120172</v>
       </c>
       <c r="G29" t="n">
-        <v>271.0347627863885</v>
+        <v>271.0347627863884</v>
       </c>
       <c r="H29" t="n">
         <v>189.672839261764</v>
       </c>
       <c r="I29" t="n">
-        <v>42.504374254904</v>
+        <v>42.50437425490396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.0794409090259</v>
+        <v>51.07944090902587</v>
       </c>
       <c r="T29" t="n">
-        <v>77.44524061750349</v>
+        <v>77.4452406175042</v>
       </c>
       <c r="U29" t="n">
         <v>108.1207910241073</v>
       </c>
       <c r="V29" t="n">
-        <v>185.2165124539958</v>
+        <v>185.2165124539957</v>
       </c>
       <c r="W29" t="n">
         <v>207.213407932031</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>92.84650332294196</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>2.795714506121953</v>
       </c>
       <c r="E30" t="n">
-        <v>148.8488812015046</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1895230150257134</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.97563928679011</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>163.9597484840094</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.35444235006244</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.76698242216023</v>
+        <v>36.7669824221602</v>
       </c>
       <c r="C31" t="n">
-        <v>24.01984386267875</v>
+        <v>24.01984386267873</v>
       </c>
       <c r="D31" t="n">
-        <v>5.688857445995779</v>
+        <v>5.688857445995751</v>
       </c>
       <c r="E31" t="n">
-        <v>3.657915104675595</v>
+        <v>3.657915104675567</v>
       </c>
       <c r="F31" t="n">
-        <v>2.842312341280916</v>
+        <v>2.842312341280888</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34711970203868</v>
+        <v>24.34711970203865</v>
       </c>
       <c r="H31" t="n">
-        <v>16.31014988552241</v>
+        <v>16.31014988552239</v>
       </c>
       <c r="I31" t="n">
-        <v>3.652614021811812</v>
+        <v>3.652614021811782</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.92344088204485</v>
+        <v>19.92344088204483</v>
       </c>
       <c r="S31" t="n">
-        <v>75.10631402154169</v>
+        <v>75.10631402154166</v>
       </c>
       <c r="T31" t="n">
-        <v>84.05114533219748</v>
+        <v>84.05114533219745</v>
       </c>
       <c r="U31" t="n">
-        <v>142.72324713202</v>
+        <v>142.7232471320199</v>
       </c>
       <c r="V31" t="n">
-        <v>109.6196419984156</v>
+        <v>109.6196419984155</v>
       </c>
       <c r="W31" t="n">
-        <v>142.775867818892</v>
+        <v>142.7758678188919</v>
       </c>
       <c r="X31" t="n">
-        <v>82.82365086378567</v>
+        <v>82.82365086378564</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.43196479924464</v>
+        <v>75.43196479924461</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>230.2210729005155</v>
       </c>
       <c r="C32" t="n">
-        <v>213.489758588063</v>
+        <v>213.4897585880631</v>
       </c>
       <c r="D32" t="n">
         <v>203.1093956637188</v>
@@ -3038,7 +3038,7 @@
         <v>229.6226986644079</v>
       </c>
       <c r="F32" t="n">
-        <v>253.7985263896612</v>
+        <v>253.7985263896613</v>
       </c>
       <c r="G32" t="n">
         <v>260.8561347640324</v>
@@ -3047,7 +3047,7 @@
         <v>179.494211239408</v>
       </c>
       <c r="I32" t="n">
-        <v>32.325746232548</v>
+        <v>32.32574623254803</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.90081288666988</v>
+        <v>40.90081288667002</v>
       </c>
       <c r="T32" t="n">
-        <v>67.26661259514792</v>
+        <v>67.26661259514825</v>
       </c>
       <c r="U32" t="n">
         <v>97.94216300175162</v>
@@ -3108,19 +3108,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>48.44436305033486</v>
+        <v>30.70295037556423</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>2.538096616294268</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.753924416109</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.97563928679011</v>
+        <v>77.97563928679013</v>
       </c>
       <c r="S33" t="n">
         <v>163.9597484840094</v>
@@ -3171,10 +3171,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>50.96629251759867</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.17581432770643</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.58835439980422</v>
+        <v>26.58835439980425</v>
       </c>
       <c r="C34" t="n">
-        <v>13.84121584032275</v>
+        <v>13.84121584032277</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.16849167968267</v>
+        <v>14.1684916796827</v>
       </c>
       <c r="H34" t="n">
-        <v>6.131521863166405</v>
+        <v>6.131521863166435</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.744812859688846</v>
+        <v>9.74481285968888</v>
       </c>
       <c r="S34" t="n">
-        <v>64.92768599918568</v>
+        <v>64.92768599918571</v>
       </c>
       <c r="T34" t="n">
-        <v>73.87251730984147</v>
+        <v>73.8725173098415</v>
       </c>
       <c r="U34" t="n">
         <v>132.544619109664</v>
       </c>
       <c r="V34" t="n">
-        <v>99.44101397605957</v>
+        <v>99.44101397605959</v>
       </c>
       <c r="W34" t="n">
-        <v>132.5972397965359</v>
+        <v>132.597239796536</v>
       </c>
       <c r="X34" t="n">
-        <v>72.64502284142966</v>
+        <v>72.64502284142969</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.25333677688863</v>
+        <v>65.25333677688866</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>173.6899449606231</v>
       </c>
       <c r="D35" t="n">
-        <v>163.3095820362789</v>
+        <v>163.3095820362788</v>
       </c>
       <c r="E35" t="n">
         <v>189.8228850369679</v>
@@ -3317,19 +3317,19 @@
         <v>1.100999259229766</v>
       </c>
       <c r="T35" t="n">
-        <v>27.46679896770829</v>
+        <v>27.46679896770826</v>
       </c>
       <c r="U35" t="n">
-        <v>58.14234937431137</v>
+        <v>58.14234937431226</v>
       </c>
       <c r="V35" t="n">
         <v>135.2380708041998</v>
       </c>
       <c r="W35" t="n">
-        <v>157.2349662822351</v>
+        <v>157.234966282235</v>
       </c>
       <c r="X35" t="n">
-        <v>177.5664484128499</v>
+        <v>177.5664484128498</v>
       </c>
       <c r="Y35" t="n">
         <v>193.3919210329163</v>
@@ -3348,7 +3348,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>8.327886639103056</v>
+        <v>8.327886639102605</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.12787237174575</v>
+        <v>25.12787237174572</v>
       </c>
       <c r="T37" t="n">
-        <v>34.07270368240155</v>
+        <v>34.07270368240152</v>
       </c>
       <c r="U37" t="n">
-        <v>92.74480548222401</v>
+        <v>92.74480548222398</v>
       </c>
       <c r="V37" t="n">
-        <v>59.64120034861963</v>
+        <v>59.64120034861961</v>
       </c>
       <c r="W37" t="n">
-        <v>92.79742616909601</v>
+        <v>92.79742616909598</v>
       </c>
       <c r="X37" t="n">
-        <v>32.84520921398973</v>
+        <v>32.8452092139897</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.4535231494487</v>
+        <v>25.45352314944867</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3554,10 @@
         <v>1.100999259229923</v>
       </c>
       <c r="T38" t="n">
-        <v>27.46679896770812</v>
+        <v>27.46679896770826</v>
       </c>
       <c r="U38" t="n">
-        <v>58.14234937431137</v>
+        <v>58.14234937431091</v>
       </c>
       <c r="V38" t="n">
         <v>135.2380708041998</v>
@@ -3582,10 +3582,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>102.1213895708867</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>197.2971212063838</v>
       </c>
       <c r="U39" t="n">
-        <v>31.34431017855711</v>
+        <v>224.6394608968766</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>181.9496842057456</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3791,10 +3791,10 @@
         <v>1.100999259229923</v>
       </c>
       <c r="T41" t="n">
-        <v>27.46679896770826</v>
+        <v>27.46679896770812</v>
       </c>
       <c r="U41" t="n">
-        <v>58.14234937431137</v>
+        <v>58.14234937431114</v>
       </c>
       <c r="V41" t="n">
         <v>135.2380708041998</v>
@@ -3825,10 +3825,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.97563928679011</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>13.6480099248419</v>
+        <v>163.9597484840094</v>
       </c>
       <c r="T42" t="n">
         <v>197.2971212063838</v>
@@ -3876,7 +3876,7 @@
         <v>224.6394608968766</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>172.0998333909021</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3980,7 +3980,7 @@
         <v>173.6899449606231</v>
       </c>
       <c r="D44" t="n">
-        <v>163.3095820362788</v>
+        <v>163.3095820362789</v>
       </c>
       <c r="E44" t="n">
         <v>189.8228850369679</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.100999259229766</v>
+        <v>1.100999259229951</v>
       </c>
       <c r="T44" t="n">
-        <v>27.46679896770826</v>
+        <v>27.46679896770829</v>
       </c>
       <c r="U44" t="n">
-        <v>58.14234937431137</v>
+        <v>58.14234937431181</v>
       </c>
       <c r="V44" t="n">
         <v>135.2380708041998</v>
       </c>
       <c r="W44" t="n">
-        <v>157.234966282235</v>
+        <v>157.2349662822351</v>
       </c>
       <c r="X44" t="n">
-        <v>177.5664484128498</v>
+        <v>177.5664484128499</v>
       </c>
       <c r="Y44" t="n">
         <v>193.3919210329163</v>
@@ -4056,22 +4056,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>109.873697238327</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.753924416109</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8617817184869</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>77.23208099561693</v>
@@ -4110,16 +4110,16 @@
         <v>197.2971212063838</v>
       </c>
       <c r="U45" t="n">
-        <v>152.59743826776</v>
+        <v>224.6394608968766</v>
       </c>
       <c r="V45" t="n">
-        <v>38.61358032133558</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>11.16647889015871</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.12787237174572</v>
+        <v>25.12787237174575</v>
       </c>
       <c r="T46" t="n">
-        <v>34.07270368240152</v>
+        <v>34.07270368240155</v>
       </c>
       <c r="U46" t="n">
-        <v>92.74480548222398</v>
+        <v>92.74480548222401</v>
       </c>
       <c r="V46" t="n">
-        <v>59.64120034861961</v>
+        <v>59.64120034861963</v>
       </c>
       <c r="W46" t="n">
-        <v>92.79742616909598</v>
+        <v>92.79742616909601</v>
       </c>
       <c r="X46" t="n">
-        <v>32.8452092139897</v>
+        <v>32.84520921398973</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.45352314944867</v>
+        <v>25.4535231494487</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4334,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L2" t="n">
-        <v>1.188381232306474</v>
+        <v>11.28146113382036</v>
       </c>
       <c r="M2" t="n">
         <v>11.28146113382036</v>
@@ -4355,13 +4355,13 @@
         <v>59.4190616153237</v>
       </c>
       <c r="S2" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T2" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U2" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V2" t="n">
         <v>44.41424807610054</v>
@@ -4370,10 +4370,10 @@
         <v>44.41424807610054</v>
       </c>
       <c r="X2" t="n">
-        <v>29.40943453687738</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.5607336407628</v>
+        <v>38.56554717998596</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="M3" t="n">
-        <v>15.30040836594585</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="N3" t="n">
         <v>15.30040836594585</v>
@@ -4431,28 +4431,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R3" t="n">
-        <v>46.20282184997595</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="S3" t="n">
-        <v>31.19800831075279</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="T3" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="U3" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="V3" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="W3" t="n">
-        <v>16.19319477152963</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="X3" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
     </row>
     <row r="4">
@@ -4492,7 +4492,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L4" t="n">
-        <v>9.239606686248854</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="M4" t="n">
         <v>23.94582443604147</v>
@@ -4507,28 +4507,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.41424807610054</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="R4" t="n">
-        <v>44.41424807610054</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="S4" t="n">
-        <v>29.40943453687738</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="T4" t="n">
-        <v>14.40462099765423</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="U4" t="n">
-        <v>14.40462099765423</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="V4" t="n">
-        <v>14.40462099765423</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="W4" t="n">
-        <v>14.40462099765423</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="X4" t="n">
-        <v>14.40462099765423</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="Y4" t="n">
         <v>1.188381232306474</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="C5" t="n">
-        <v>29.40943453687738</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="D5" t="n">
-        <v>29.40943453687738</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="E5" t="n">
-        <v>29.40943453687738</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="F5" t="n">
-        <v>22.04189566764422</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="G5" t="n">
-        <v>7.037082128421059</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="H5" t="n">
-        <v>7.037082128421059</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="I5" t="n">
         <v>1.188381232306474</v>
@@ -4595,22 +4595,22 @@
         <v>59.4190616153237</v>
       </c>
       <c r="T5" t="n">
-        <v>59.4190616153237</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="U5" t="n">
-        <v>59.4190616153237</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="V5" t="n">
-        <v>44.41424807610054</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="W5" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="X5" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="Y5" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="C6" t="n">
         <v>1.188381232306474</v>
@@ -4668,28 +4668,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R6" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S6" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T6" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="U6" t="n">
-        <v>29.40943453687738</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="V6" t="n">
         <v>14.40462099765423</v>
       </c>
       <c r="W6" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="X6" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.188381232306474</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="C7" t="n">
         <v>1.188381232306474</v>
@@ -4744,31 +4744,31 @@
         <v>59.4190616153237</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.20282184997595</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="R7" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="S7" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="T7" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="U7" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="V7" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="W7" t="n">
+        <v>44.41424807610054</v>
+      </c>
+      <c r="X7" t="n">
         <v>31.19800831075279</v>
       </c>
-      <c r="S7" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="T7" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="U7" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.188381232306474</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.188381232306474</v>
-      </c>
       <c r="Y7" t="n">
-        <v>1.188381232306474</v>
+        <v>31.19800831075279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.1970425970575</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="C8" t="n">
-        <v>136.1970425970575</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="D8" t="n">
-        <v>81.45257828934241</v>
+        <v>82.11851478890041</v>
       </c>
       <c r="E8" t="n">
-        <v>81.45257828934241</v>
+        <v>82.11851478890041</v>
       </c>
       <c r="F8" t="n">
-        <v>74.08503942010924</v>
+        <v>74.75097591966724</v>
       </c>
       <c r="G8" t="n">
-        <v>59.08022588088608</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="H8" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I8" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J8" t="n">
         <v>4.335761573171031</v>
@@ -4832,22 +4832,22 @@
         <v>216.7880786585516</v>
       </c>
       <c r="T8" t="n">
-        <v>190.9415069047725</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U8" t="n">
-        <v>190.9415069047725</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V8" t="n">
-        <v>190.9415069047725</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="W8" t="n">
-        <v>136.1970425970575</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X8" t="n">
-        <v>136.1970425970575</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="Y8" t="n">
-        <v>136.1970425970575</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C9" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D9" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E9" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F9" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G9" t="n">
         <v>4.335761573171031</v>
@@ -4905,28 +4905,28 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>216.7880786585516</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="S9" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="T9" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U9" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="V9" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="W9" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X9" t="n">
-        <v>107.2991500431215</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.2991500431215</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C10" t="n">
         <v>4.335761573171031</v>
@@ -4987,16 +4987,16 @@
         <v>185.0560915141895</v>
       </c>
       <c r="S10" t="n">
+        <v>185.0560915141895</v>
+      </c>
+      <c r="T10" t="n">
         <v>130.3116272064745</v>
-      </c>
-      <c r="T10" t="n">
-        <v>113.8246901886011</v>
       </c>
       <c r="U10" t="n">
         <v>113.8246901886011</v>
       </c>
       <c r="V10" t="n">
-        <v>113.8246901886011</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="W10" t="n">
         <v>59.08022588088608</v>
@@ -5005,7 +5005,7 @@
         <v>59.08022588088608</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.2584397502631</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="C11" t="n">
-        <v>98.12529681269801</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="D11" t="n">
-        <v>98.12529681269801</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="E11" t="n">
-        <v>98.12529681269801</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="F11" t="n">
-        <v>98.12529681269801</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="G11" t="n">
-        <v>98.12529681269801</v>
+        <v>311.3414576400753</v>
       </c>
       <c r="H11" t="n">
-        <v>98.12529681269801</v>
+        <v>98.12529681269798</v>
       </c>
       <c r="I11" t="n">
         <v>33.56415114376507</v>
       </c>
       <c r="J11" t="n">
-        <v>75.20071351962929</v>
+        <v>75.2007135196294</v>
       </c>
       <c r="K11" t="n">
-        <v>259.8797200872943</v>
+        <v>259.8797200872946</v>
       </c>
       <c r="L11" t="n">
-        <v>540.9594362924691</v>
+        <v>540.9594362924695</v>
       </c>
       <c r="M11" t="n">
-        <v>868.9270726919567</v>
+        <v>868.9270726919571</v>
       </c>
       <c r="N11" t="n">
         <v>1186.684393335726</v>
@@ -5078,13 +5078,13 @@
         <v>1165.574602810484</v>
       </c>
       <c r="W11" t="n">
-        <v>934.640695851524</v>
+        <v>934.6406958515241</v>
       </c>
       <c r="X11" t="n">
-        <v>683.1699382555792</v>
+        <v>843.2529561453913</v>
       </c>
       <c r="Y11" t="n">
-        <v>415.7138547807793</v>
+        <v>575.7968726705915</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>187.8400257955704</v>
+        <v>177.911476550794</v>
       </c>
       <c r="C12" t="n">
-        <v>128.2952797667366</v>
+        <v>128.2952797667364</v>
       </c>
       <c r="D12" t="n">
-        <v>103.8438914198057</v>
+        <v>103.8438914198056</v>
       </c>
       <c r="E12" t="n">
-        <v>69.37128071678562</v>
+        <v>69.37128071678553</v>
       </c>
       <c r="F12" t="n">
-        <v>47.5524090275277</v>
+        <v>47.55240902752766</v>
       </c>
       <c r="G12" t="n">
         <v>33.56415114376507</v>
@@ -5121,7 +5121,7 @@
         <v>33.56415114376507</v>
       </c>
       <c r="K12" t="n">
-        <v>33.56415114376507</v>
+        <v>157.0121530281814</v>
       </c>
       <c r="L12" t="n">
         <v>157.0121530281814</v>
@@ -5154,16 +5154,16 @@
         <v>1007.629809840718</v>
       </c>
       <c r="V12" t="n">
-        <v>773.3785663663191</v>
+        <v>886.5869354156679</v>
       </c>
       <c r="W12" t="n">
-        <v>520.8640746996524</v>
+        <v>634.0724437490012</v>
       </c>
       <c r="X12" t="n">
-        <v>437.4740943993551</v>
+        <v>427.5455451545787</v>
       </c>
       <c r="Y12" t="n">
-        <v>231.7456586230056</v>
+        <v>344.9540276723544</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>248.1694379115432</v>
+        <v>248.1694379115442</v>
       </c>
       <c r="C13" t="n">
-        <v>202.2795350630398</v>
+        <v>202.2795350630408</v>
       </c>
       <c r="D13" t="n">
-        <v>174.9057801101758</v>
+        <v>174.9057801101768</v>
       </c>
       <c r="E13" t="n">
-        <v>149.5834820677362</v>
+        <v>149.5834820677372</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0850252004427</v>
+        <v>125.0850252004438</v>
       </c>
       <c r="G13" t="n">
-        <v>78.86454069602016</v>
+        <v>78.86454069602102</v>
       </c>
       <c r="H13" t="n">
-        <v>40.76220752141198</v>
+        <v>40.76220752141295</v>
       </c>
       <c r="I13" t="n">
         <v>33.56415114376507</v>
       </c>
       <c r="J13" t="n">
-        <v>82.10181913242516</v>
+        <v>82.10181913242525</v>
       </c>
       <c r="K13" t="n">
-        <v>214.1285806828001</v>
+        <v>214.1285806828003</v>
       </c>
       <c r="L13" t="n">
-        <v>405.1303280724995</v>
+        <v>405.1303280724997</v>
       </c>
       <c r="M13" t="n">
-        <v>610.5472974889451</v>
+        <v>610.5472974889454</v>
       </c>
       <c r="N13" t="n">
-        <v>819.0908274677188</v>
+        <v>819.0908274677192</v>
       </c>
       <c r="O13" t="n">
-        <v>1005.590917683025</v>
+        <v>1005.590917683026</v>
       </c>
       <c r="P13" t="n">
-        <v>1159.36983144617</v>
+        <v>1159.369831446171</v>
       </c>
       <c r="Q13" t="n">
         <v>1219.80852365534</v>
@@ -5227,22 +5227,22 @@
         <v>1080.56400363689</v>
       </c>
       <c r="T13" t="n">
-        <v>974.036422536347</v>
+        <v>974.0364225363477</v>
       </c>
       <c r="U13" t="n">
-        <v>808.2440921430547</v>
+        <v>808.2440921430552</v>
       </c>
       <c r="V13" t="n">
-        <v>675.8897467332009</v>
+        <v>675.8897467332015</v>
       </c>
       <c r="W13" t="n">
-        <v>510.0442641309467</v>
+        <v>510.0442641309475</v>
       </c>
       <c r="X13" t="n">
-        <v>404.7565764328403</v>
+        <v>404.7565764328411</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.9352382948764</v>
+        <v>306.9352382948773</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.2584397502637</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="C14" t="n">
-        <v>98.12529681269797</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="D14" t="n">
-        <v>98.12529681269797</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="E14" t="n">
-        <v>98.12529681269797</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="F14" t="n">
-        <v>98.12529681269797</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="G14" t="n">
-        <v>98.12529681269797</v>
+        <v>311.3414576400754</v>
       </c>
       <c r="H14" t="n">
-        <v>98.12529681269797</v>
+        <v>98.12529681269801</v>
       </c>
       <c r="I14" t="n">
         <v>33.56415114376507</v>
@@ -5312,16 +5312,16 @@
         <v>1374.289423427995</v>
       </c>
       <c r="V14" t="n">
-        <v>1165.574602810485</v>
+        <v>1165.574602810484</v>
       </c>
       <c r="W14" t="n">
-        <v>934.6406958515245</v>
+        <v>934.6406958515238</v>
       </c>
       <c r="X14" t="n">
-        <v>683.1699382555796</v>
+        <v>683.1699382555789</v>
       </c>
       <c r="Y14" t="n">
-        <v>415.7138547807799</v>
+        <v>415.7138547807791</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>187.8400257955705</v>
+        <v>301.0483948449194</v>
       </c>
       <c r="C15" t="n">
-        <v>138.2238290115129</v>
+        <v>251.4321980608618</v>
       </c>
       <c r="D15" t="n">
-        <v>113.7724406645821</v>
+        <v>103.8438914198057</v>
       </c>
       <c r="E15" t="n">
-        <v>69.37128071678551</v>
+        <v>69.37128071678559</v>
       </c>
       <c r="F15" t="n">
-        <v>47.55240902752764</v>
+        <v>47.55240902752769</v>
       </c>
       <c r="G15" t="n">
         <v>33.56415114376507</v>
@@ -5382,25 +5382,25 @@
         <v>1599.444285181395</v>
       </c>
       <c r="S15" t="n">
-        <v>1433.82837762179</v>
+        <v>1547.036746671138</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.5383562012</v>
+        <v>1347.746725250549</v>
       </c>
       <c r="U15" t="n">
-        <v>1007.629809840718</v>
+        <v>1120.838178890067</v>
       </c>
       <c r="V15" t="n">
-        <v>773.3785663663191</v>
+        <v>1009.723853709793</v>
       </c>
       <c r="W15" t="n">
-        <v>520.8640746996524</v>
+        <v>757.2093620431266</v>
       </c>
       <c r="X15" t="n">
-        <v>437.4740943993552</v>
+        <v>550.6824634487041</v>
       </c>
       <c r="Y15" t="n">
-        <v>231.7456586230057</v>
+        <v>344.9540276723546</v>
       </c>
     </row>
     <row r="16">
@@ -5419,40 +5419,40 @@
         <v>174.9057801101764</v>
       </c>
       <c r="E16" t="n">
-        <v>149.5834820677369</v>
+        <v>149.5834820677367</v>
       </c>
       <c r="F16" t="n">
-        <v>143.2039122360798</v>
+        <v>125.0850252004432</v>
       </c>
       <c r="G16" t="n">
-        <v>96.98342773165737</v>
+        <v>78.86454069602073</v>
       </c>
       <c r="H16" t="n">
-        <v>58.88109455704929</v>
+        <v>40.76220752141262</v>
       </c>
       <c r="I16" t="n">
         <v>33.56415114376507</v>
       </c>
       <c r="J16" t="n">
-        <v>82.10181913242525</v>
+        <v>82.10181913242521</v>
       </c>
       <c r="K16" t="n">
-        <v>214.1285806828003</v>
+        <v>214.1285806828002</v>
       </c>
       <c r="L16" t="n">
-        <v>405.1303280724997</v>
+        <v>405.1303280724996</v>
       </c>
       <c r="M16" t="n">
-        <v>610.5472974889453</v>
+        <v>610.5472974889452</v>
       </c>
       <c r="N16" t="n">
-        <v>819.0908274677191</v>
+        <v>819.0908274677189</v>
       </c>
       <c r="O16" t="n">
-        <v>1005.590917683026</v>
+        <v>1005.590917683025</v>
       </c>
       <c r="P16" t="n">
-        <v>1159.369831446171</v>
+        <v>1159.36983144617</v>
       </c>
       <c r="Q16" t="n">
         <v>1219.80852365534</v>
@@ -5464,22 +5464,22 @@
         <v>1080.56400363689</v>
       </c>
       <c r="T16" t="n">
-        <v>974.0364225363471</v>
+        <v>974.0364225363476</v>
       </c>
       <c r="U16" t="n">
-        <v>808.2440921430547</v>
+        <v>808.2440921430551</v>
       </c>
       <c r="V16" t="n">
-        <v>675.889746733201</v>
+        <v>675.8897467332014</v>
       </c>
       <c r="W16" t="n">
-        <v>510.044264130947</v>
+        <v>510.0442641309472</v>
       </c>
       <c r="X16" t="n">
-        <v>404.7565764328407</v>
+        <v>404.7565764328409</v>
       </c>
       <c r="Y16" t="n">
-        <v>306.9352382948769</v>
+        <v>306.935238294877</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>951.6317270776575</v>
+        <v>951.6317270776574</v>
       </c>
       <c r="C17" t="n">
-        <v>808.6258808834418</v>
+        <v>808.6258808834423</v>
       </c>
       <c r="D17" t="n">
-        <v>676.1052497643215</v>
+        <v>676.1052497643218</v>
       </c>
       <c r="E17" t="n">
-        <v>516.8035045030909</v>
+        <v>516.8035045030912</v>
       </c>
       <c r="F17" t="n">
-        <v>333.081731236554</v>
+        <v>333.0817312365542</v>
       </c>
       <c r="G17" t="n">
-        <v>142.2310606221674</v>
+        <v>142.2310606221675</v>
       </c>
       <c r="H17" t="n">
         <v>33.56415114376507</v>
@@ -5513,7 +5513,7 @@
         <v>33.56415114376507</v>
       </c>
       <c r="J17" t="n">
-        <v>75.20071351962929</v>
+        <v>75.2007135196294</v>
       </c>
       <c r="K17" t="n">
         <v>259.8797200872946</v>
@@ -5522,7 +5522,7 @@
         <v>540.9594362924695</v>
       </c>
       <c r="M17" t="n">
-        <v>868.9270726919569</v>
+        <v>868.9270726919571</v>
       </c>
       <c r="N17" t="n">
         <v>1186.684393335726</v>
@@ -5552,7 +5552,7 @@
         <v>1547.750884741979</v>
       </c>
       <c r="W17" t="n">
-        <v>1421.366229131993</v>
+        <v>1421.366229131994</v>
       </c>
       <c r="X17" t="n">
         <v>1274.444722885024</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>475.8871629598544</v>
+        <v>363.9267952190932</v>
       </c>
       <c r="C18" t="n">
-        <v>475.8871629598544</v>
+        <v>191.1736801409104</v>
       </c>
       <c r="D18" t="n">
-        <v>328.2988563187982</v>
+        <v>191.1736801409104</v>
       </c>
       <c r="E18" t="n">
-        <v>170.6893273216529</v>
+        <v>33.56415114376507</v>
       </c>
       <c r="F18" t="n">
-        <v>170.6893273216529</v>
+        <v>33.56415114376507</v>
       </c>
       <c r="G18" t="n">
         <v>33.56415114376507</v>
@@ -5595,10 +5595,10 @@
         <v>33.56415114376507</v>
       </c>
       <c r="K18" t="n">
-        <v>157.0121530281814</v>
+        <v>33.56415114376507</v>
       </c>
       <c r="L18" t="n">
-        <v>157.0121530281814</v>
+        <v>339.5263303722381</v>
       </c>
       <c r="M18" t="n">
         <v>566.8557789588542</v>
@@ -5628,16 +5628,16 @@
         <v>1007.629809840718</v>
       </c>
       <c r="V18" t="n">
-        <v>773.3785663663191</v>
+        <v>968.0530027349922</v>
       </c>
       <c r="W18" t="n">
-        <v>520.8640746996524</v>
+        <v>943.2246807114257</v>
       </c>
       <c r="X18" t="n">
-        <v>475.8871629598544</v>
+        <v>736.6977821170032</v>
       </c>
       <c r="Y18" t="n">
-        <v>475.8871629598544</v>
+        <v>530.9693463406536</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>33.56415114376507</v>
       </c>
       <c r="K19" t="n">
-        <v>44.90441907406795</v>
+        <v>44.90441907406794</v>
       </c>
       <c r="L19" t="n">
         <v>115.2196728436952</v>
@@ -5701,19 +5701,19 @@
         <v>386.7132017370774</v>
       </c>
       <c r="T19" t="n">
-        <v>384.73487198551</v>
+        <v>384.7348719855098</v>
       </c>
       <c r="U19" t="n">
-        <v>323.4917929411926</v>
+        <v>323.4917929411923</v>
       </c>
       <c r="V19" t="n">
-        <v>295.6866988803139</v>
+        <v>295.6866988803135</v>
       </c>
       <c r="W19" t="n">
-        <v>234.3904676270348</v>
+        <v>234.3904676270343</v>
       </c>
       <c r="X19" t="n">
-        <v>233.6520312779035</v>
+        <v>233.6520312779029</v>
       </c>
       <c r="Y19" t="n">
         <v>33.56415114376507</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>951.631727077658</v>
+        <v>951.6317270776583</v>
       </c>
       <c r="C20" t="n">
-        <v>808.6258808834422</v>
+        <v>808.6258808834425</v>
       </c>
       <c r="D20" t="n">
-        <v>676.1052497643218</v>
+        <v>676.1052497643221</v>
       </c>
       <c r="E20" t="n">
-        <v>516.8035045030912</v>
+        <v>516.8035045030915</v>
       </c>
       <c r="F20" t="n">
-        <v>333.0817312365541</v>
+        <v>333.0817312365543</v>
       </c>
       <c r="G20" t="n">
         <v>142.2310606221675</v>
@@ -5753,13 +5753,13 @@
         <v>75.2007135196294</v>
       </c>
       <c r="K20" t="n">
-        <v>259.8797200872946</v>
+        <v>259.8797200872945</v>
       </c>
       <c r="L20" t="n">
-        <v>540.9594362924695</v>
+        <v>540.9594362924694</v>
       </c>
       <c r="M20" t="n">
-        <v>868.9270726919571</v>
+        <v>868.9270726919569</v>
       </c>
       <c r="N20" t="n">
         <v>1186.684393335726</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>508.8825852024764</v>
+        <v>734.4830948694082</v>
       </c>
       <c r="C21" t="n">
-        <v>336.1294701242936</v>
+        <v>561.7299797912253</v>
       </c>
       <c r="D21" t="n">
-        <v>336.1294701242936</v>
+        <v>414.1416731501693</v>
       </c>
       <c r="E21" t="n">
-        <v>178.5199411271482</v>
+        <v>256.5321441530239</v>
       </c>
       <c r="F21" t="n">
-        <v>33.56415114376507</v>
+        <v>111.5763541696408</v>
       </c>
       <c r="G21" t="n">
-        <v>33.56415114376507</v>
+        <v>111.5763541696408</v>
       </c>
       <c r="H21" t="n">
-        <v>33.56415114376507</v>
+        <v>111.5763541696408</v>
       </c>
       <c r="I21" t="n">
         <v>33.56415114376507</v>
       </c>
       <c r="J21" t="n">
-        <v>66.1446476377034</v>
+        <v>33.56415114376507</v>
       </c>
       <c r="K21" t="n">
-        <v>248.4355187232576</v>
+        <v>33.56415114376507</v>
       </c>
       <c r="L21" t="n">
-        <v>248.4355187232576</v>
+        <v>157.0121530281814</v>
       </c>
       <c r="M21" t="n">
         <v>566.8557789588542</v>
@@ -5859,22 +5859,22 @@
         <v>1433.82837762179</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.5383562012</v>
+        <v>1433.82837762179</v>
       </c>
       <c r="U21" t="n">
-        <v>1234.5383562012</v>
+        <v>1206.919831261308</v>
       </c>
       <c r="V21" t="n">
-        <v>1000.287112726801</v>
+        <v>972.6685877869088</v>
       </c>
       <c r="W21" t="n">
-        <v>747.7726210601339</v>
+        <v>901.5256459909687</v>
       </c>
       <c r="X21" t="n">
-        <v>541.2457224657114</v>
+        <v>901.5256459909687</v>
       </c>
       <c r="Y21" t="n">
-        <v>508.8825852024764</v>
+        <v>901.5256459909687</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5935,19 @@
         <v>386.7132017370774</v>
       </c>
       <c r="S22" t="n">
-        <v>386.7132017370774</v>
+        <v>186.6253216029395</v>
       </c>
       <c r="T22" t="n">
-        <v>384.7348719855099</v>
+        <v>184.6469918513719</v>
       </c>
       <c r="U22" t="n">
-        <v>123.4039128070543</v>
+        <v>123.4039128070544</v>
       </c>
       <c r="V22" t="n">
-        <v>95.59881874617557</v>
+        <v>95.59881874617562</v>
       </c>
       <c r="W22" t="n">
-        <v>34.30258749289644</v>
+        <v>34.30258749289646</v>
       </c>
       <c r="X22" t="n">
         <v>33.56415114376507</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>951.6317270776578</v>
+        <v>951.6317270776582</v>
       </c>
       <c r="C23" t="n">
-        <v>808.6258808834417</v>
+        <v>808.6258808834423</v>
       </c>
       <c r="D23" t="n">
-        <v>676.1052497643213</v>
+        <v>676.1052497643219</v>
       </c>
       <c r="E23" t="n">
-        <v>516.8035045030908</v>
+        <v>516.8035045030913</v>
       </c>
       <c r="F23" t="n">
-        <v>333.0817312365539</v>
+        <v>333.0817312365542</v>
       </c>
       <c r="G23" t="n">
         <v>142.2310606221675</v>
       </c>
       <c r="H23" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="I23" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="J23" t="n">
-        <v>75.2007135196294</v>
+        <v>75.20071351962943</v>
       </c>
       <c r="K23" t="n">
         <v>259.8797200872946</v>
@@ -5999,28 +5999,28 @@
         <v>868.9270726919571</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.684393335726</v>
+        <v>1186.684393335727</v>
       </c>
       <c r="O23" t="n">
-        <v>1440.605269320073</v>
+        <v>1440.605269320074</v>
       </c>
       <c r="P23" t="n">
-        <v>1620.382069137619</v>
+        <v>1620.38206913762</v>
       </c>
       <c r="Q23" t="n">
-        <v>1678.207557188254</v>
+        <v>1678.207557188255</v>
       </c>
       <c r="R23" t="n">
-        <v>1678.207557188254</v>
+        <v>1678.207557188255</v>
       </c>
       <c r="S23" t="n">
-        <v>1678.207557188254</v>
+        <v>1678.207557188255</v>
       </c>
       <c r="T23" t="n">
-        <v>1678.207557188254</v>
+        <v>1678.207557188255</v>
       </c>
       <c r="U23" t="n">
-        <v>1651.916454010514</v>
+        <v>1651.916454010515</v>
       </c>
       <c r="V23" t="n">
         <v>1547.750884741979</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.3172662219479</v>
+        <v>472.8780898842315</v>
       </c>
       <c r="C24" t="n">
-        <v>33.56415114376507</v>
+        <v>300.1249748060487</v>
       </c>
       <c r="D24" t="n">
-        <v>33.56415114376507</v>
+        <v>300.1249748060487</v>
       </c>
       <c r="E24" t="n">
-        <v>33.56415114376507</v>
+        <v>142.5154458089034</v>
       </c>
       <c r="F24" t="n">
-        <v>33.56415114376507</v>
+        <v>142.5154458089034</v>
       </c>
       <c r="G24" t="n">
-        <v>33.56415114376507</v>
+        <v>142.5154458089034</v>
       </c>
       <c r="H24" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="I24" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="J24" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="K24" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="L24" t="n">
-        <v>339.5263303722381</v>
+        <v>157.0121530281824</v>
       </c>
       <c r="M24" t="n">
-        <v>566.8557789588542</v>
+        <v>566.8557789588551</v>
       </c>
       <c r="N24" t="n">
-        <v>982.2121493629469</v>
+        <v>982.2121493629483</v>
       </c>
       <c r="O24" t="n">
-        <v>1313.521008385642</v>
+        <v>1313.521008385643</v>
       </c>
       <c r="P24" t="n">
-        <v>1562.999035377634</v>
+        <v>1562.999035377635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1678.207557188254</v>
+        <v>1678.207557188255</v>
       </c>
       <c r="R24" t="n">
-        <v>1599.444285181395</v>
+        <v>1599.444285181396</v>
       </c>
       <c r="S24" t="n">
-        <v>1433.82837762179</v>
+        <v>1433.828377621791</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.5383562012</v>
+        <v>1371.121536113451</v>
       </c>
       <c r="U24" t="n">
-        <v>1007.629809840718</v>
+        <v>1144.212989752969</v>
       </c>
       <c r="V24" t="n">
-        <v>810.4434737378469</v>
+        <v>909.9617462785701</v>
       </c>
       <c r="W24" t="n">
-        <v>785.6151517142804</v>
+        <v>885.1334242550035</v>
       </c>
       <c r="X24" t="n">
-        <v>579.0882531198579</v>
+        <v>678.606525660581</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.3598173435083</v>
+        <v>472.8780898842315</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.56415114376507</v>
+        <v>68.76299092379342</v>
       </c>
       <c r="C25" t="n">
-        <v>33.56415114376507</v>
+        <v>68.76299092379342</v>
       </c>
       <c r="D25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="E25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="F25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="G25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="H25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="I25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="J25" t="n">
-        <v>33.56415114376507</v>
+        <v>33.5641511437651</v>
       </c>
       <c r="K25" t="n">
-        <v>44.90441907406794</v>
+        <v>44.90441907406797</v>
       </c>
       <c r="L25" t="n">
-        <v>115.2196728436952</v>
+        <v>115.2196728436953</v>
       </c>
       <c r="M25" t="n">
-        <v>199.9501486400687</v>
+        <v>199.9501486400688</v>
       </c>
       <c r="N25" t="n">
         <v>287.8071849987703</v>
@@ -6178,19 +6178,19 @@
         <v>219.8458316314003</v>
       </c>
       <c r="U25" t="n">
-        <v>123.4039128070543</v>
+        <v>158.6027525870827</v>
       </c>
       <c r="V25" t="n">
-        <v>95.59881874617557</v>
+        <v>130.797658526204</v>
       </c>
       <c r="W25" t="n">
-        <v>34.30258749289644</v>
+        <v>69.50142727292481</v>
       </c>
       <c r="X25" t="n">
-        <v>33.56415114376507</v>
+        <v>68.76299092379342</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.56415114376507</v>
+        <v>68.76299092379342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1515.929369852019</v>
+        <v>1515.92936985202</v>
       </c>
       <c r="C26" t="n">
         <v>1290.001706609172</v>
@@ -6227,10 +6227,10 @@
         <v>240.9172846114479</v>
       </c>
       <c r="K26" t="n">
-        <v>567.4798331569514</v>
+        <v>567.4798331569517</v>
       </c>
       <c r="L26" t="n">
-        <v>990.4430913399647</v>
+        <v>990.4430913399649</v>
       </c>
       <c r="M26" t="n">
         <v>1460.294269717291</v>
@@ -6257,19 +6257,19 @@
         <v>2740.036102254407</v>
       </c>
       <c r="U26" t="n">
-        <v>2630.823182028035</v>
+        <v>2630.823182028036</v>
       </c>
       <c r="V26" t="n">
         <v>2443.735795710868</v>
       </c>
       <c r="W26" t="n">
-        <v>2234.429323052251</v>
+        <v>2234.429323052252</v>
       </c>
       <c r="X26" t="n">
-        <v>2004.585999756649</v>
+        <v>2004.58599975665</v>
       </c>
       <c r="Y26" t="n">
-        <v>1758.757350582192</v>
+        <v>1758.757350582193</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>535.5395683630444</v>
+        <v>383.5180920254759</v>
       </c>
       <c r="C27" t="n">
-        <v>362.7864532848616</v>
+        <v>355.1472768682812</v>
       </c>
       <c r="D27" t="n">
-        <v>359.9624992382737</v>
+        <v>352.3233228216933</v>
       </c>
       <c r="E27" t="n">
-        <v>202.3529702411284</v>
+        <v>339.4781464190163</v>
       </c>
       <c r="F27" t="n">
-        <v>57.39718025774531</v>
+        <v>194.5223564356332</v>
       </c>
       <c r="G27" t="n">
         <v>57.39718025774531</v>
@@ -6330,25 +6330,25 @@
         <v>2041.396187999551</v>
       </c>
       <c r="S27" t="n">
-        <v>1883.037404183046</v>
+        <v>1875.780280439945</v>
       </c>
       <c r="T27" t="n">
-        <v>1828.511735356924</v>
+        <v>1676.490259019356</v>
       </c>
       <c r="U27" t="n">
-        <v>1601.603188996443</v>
+        <v>1449.581712658874</v>
       </c>
       <c r="V27" t="n">
-        <v>1367.351945522044</v>
+        <v>1215.330469184475</v>
       </c>
       <c r="W27" t="n">
-        <v>1114.837453855377</v>
+        <v>962.8159775178084</v>
       </c>
       <c r="X27" t="n">
-        <v>908.3105552609544</v>
+        <v>756.2890789233859</v>
       </c>
       <c r="Y27" t="n">
-        <v>702.5821194846048</v>
+        <v>550.5606431470363</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.7293139587592</v>
+        <v>138.7293139587594</v>
       </c>
       <c r="C28" t="n">
-        <v>114.4668454105989</v>
+        <v>114.466845410599</v>
       </c>
       <c r="D28" t="n">
-        <v>108.7205247580779</v>
+        <v>108.720524758078</v>
       </c>
       <c r="E28" t="n">
-        <v>105.0256610159814</v>
+        <v>105.0256610159815</v>
       </c>
       <c r="F28" t="n">
-        <v>102.154638449031</v>
+        <v>102.1546384490311</v>
       </c>
       <c r="G28" t="n">
-        <v>77.56158824495154</v>
+        <v>77.56158824495159</v>
       </c>
       <c r="H28" t="n">
-        <v>61.08668937068651</v>
+        <v>61.08668937068654</v>
       </c>
       <c r="I28" t="n">
         <v>57.39718025774531</v>
       </c>
       <c r="J28" t="n">
-        <v>57.39718025774531</v>
+        <v>127.1318966041717</v>
       </c>
       <c r="K28" t="n">
-        <v>68.73744818804818</v>
+        <v>138.4721645344745</v>
       </c>
       <c r="L28" t="n">
-        <v>139.0527019576755</v>
+        <v>350.6709602819402</v>
       </c>
       <c r="M28" t="n">
-        <v>363.5556133798467</v>
+        <v>505.4391553576857</v>
       </c>
       <c r="N28" t="n">
-        <v>451.4126497385482</v>
+        <v>593.2961917163873</v>
       </c>
       <c r="O28" t="n">
-        <v>659.1097883116208</v>
+        <v>659.1097883116215</v>
       </c>
       <c r="P28" t="n">
-        <v>834.0857504325321</v>
+        <v>834.0857504325327</v>
       </c>
       <c r="Q28" t="n">
-        <v>915.7214909994681</v>
+        <v>915.7214909994686</v>
       </c>
       <c r="R28" t="n">
-        <v>895.5968032398268</v>
+        <v>895.5968032398274</v>
       </c>
       <c r="S28" t="n">
-        <v>819.731839581704</v>
+        <v>819.7318395817044</v>
       </c>
       <c r="T28" t="n">
-        <v>734.8316927815046</v>
+        <v>734.8316927815049</v>
       </c>
       <c r="U28" t="n">
-        <v>590.6667966885551</v>
+        <v>590.6667966885555</v>
       </c>
       <c r="V28" t="n">
-        <v>479.9398855790445</v>
+        <v>479.9398855790448</v>
       </c>
       <c r="W28" t="n">
-        <v>335.7218372771334</v>
+        <v>335.7218372771337</v>
       </c>
       <c r="X28" t="n">
-        <v>252.0615838793701</v>
+        <v>252.0615838793704</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.8676800417493</v>
+        <v>175.8676800417495</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1515.929369852019</v>
+        <v>1515.92936985202</v>
       </c>
       <c r="C29" t="n">
         <v>1290.001706609172</v>
@@ -6446,28 +6446,28 @@
         <v>1074.55925844142</v>
       </c>
       <c r="E29" t="n">
-        <v>832.3356961315571</v>
+        <v>832.3356961315569</v>
       </c>
       <c r="F29" t="n">
-        <v>565.6921058163882</v>
+        <v>565.692105816388</v>
       </c>
       <c r="G29" t="n">
-        <v>291.9196181533696</v>
+        <v>291.9196181533695</v>
       </c>
       <c r="H29" t="n">
         <v>100.3308916263352</v>
       </c>
       <c r="I29" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="J29" t="n">
-        <v>240.917284611448</v>
+        <v>240.9172846114482</v>
       </c>
       <c r="K29" t="n">
         <v>567.4798331569516</v>
       </c>
       <c r="L29" t="n">
-        <v>990.4430913399649</v>
+        <v>990.4430913399648</v>
       </c>
       <c r="M29" t="n">
         <v>1460.294269717291</v>
@@ -6479,16 +6479,16 @@
         <v>2315.739550301083</v>
       </c>
       <c r="P29" t="n">
-        <v>2637.399892096467</v>
+        <v>2637.399892096468</v>
       </c>
       <c r="Q29" t="n">
-        <v>2837.10892212494</v>
+        <v>2837.108922124941</v>
       </c>
       <c r="R29" t="n">
-        <v>2869.859012887265</v>
+        <v>2869.859012887266</v>
       </c>
       <c r="S29" t="n">
-        <v>2818.263618029663</v>
+        <v>2818.263618029664</v>
       </c>
       <c r="T29" t="n">
         <v>2740.036102254407</v>
@@ -6506,7 +6506,7 @@
         <v>2004.585999756649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1758.757350582192</v>
+        <v>1758.757350582193</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>528.2824446199442</v>
+        <v>535.5395683630444</v>
       </c>
       <c r="C30" t="n">
-        <v>355.5293295417613</v>
+        <v>362.7864532848616</v>
       </c>
       <c r="D30" t="n">
-        <v>207.9410229007052</v>
+        <v>359.9624992382737</v>
       </c>
       <c r="E30" t="n">
-        <v>57.58861764666017</v>
+        <v>202.3529702411284</v>
       </c>
       <c r="F30" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="G30" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="H30" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="I30" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="J30" t="n">
         <v>89.97767675168365</v>
@@ -6564,28 +6564,28 @@
         <v>2120.15946000641</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.396187999551</v>
+        <v>2120.15946000641</v>
       </c>
       <c r="S30" t="n">
-        <v>1875.780280439945</v>
+        <v>1954.543552446804</v>
       </c>
       <c r="T30" t="n">
-        <v>1676.490259019356</v>
+        <v>1755.253531026214</v>
       </c>
       <c r="U30" t="n">
-        <v>1449.581712658874</v>
+        <v>1528.344984665733</v>
       </c>
       <c r="V30" t="n">
-        <v>1215.330469184475</v>
+        <v>1294.093741191334</v>
       </c>
       <c r="W30" t="n">
-        <v>962.8159775178084</v>
+        <v>1041.579249524667</v>
       </c>
       <c r="X30" t="n">
-        <v>756.2890789233859</v>
+        <v>835.0523509302444</v>
       </c>
       <c r="Y30" t="n">
-        <v>695.3249957415046</v>
+        <v>629.3239151538949</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.7293139587594</v>
+        <v>138.7293139587592</v>
       </c>
       <c r="C31" t="n">
-        <v>114.466845410599</v>
+        <v>114.4668454105989</v>
       </c>
       <c r="D31" t="n">
-        <v>108.720524758078</v>
+        <v>108.7205247580779</v>
       </c>
       <c r="E31" t="n">
-        <v>105.0256610159815</v>
+        <v>105.0256610159814</v>
       </c>
       <c r="F31" t="n">
-        <v>102.1546384490311</v>
+        <v>102.154638449031</v>
       </c>
       <c r="G31" t="n">
-        <v>77.56158824495159</v>
+        <v>77.56158824495154</v>
       </c>
       <c r="H31" t="n">
-        <v>61.08668937068653</v>
+        <v>61.08668937068651</v>
       </c>
       <c r="I31" t="n">
-        <v>57.3971802577453</v>
+        <v>57.39718025774531</v>
       </c>
       <c r="J31" t="n">
-        <v>57.3971802577453</v>
+        <v>127.1318966041717</v>
       </c>
       <c r="K31" t="n">
-        <v>68.73744818804816</v>
+        <v>280.3557065123129</v>
       </c>
       <c r="L31" t="n">
-        <v>280.9362439355138</v>
+        <v>360.4608781504091</v>
       </c>
       <c r="M31" t="n">
-        <v>507.5502617097256</v>
+        <v>587.074895924621</v>
       </c>
       <c r="N31" t="n">
-        <v>674.9319322833232</v>
+        <v>816.8154742611609</v>
       </c>
       <c r="O31" t="n">
-        <v>740.7455288785575</v>
+        <v>882.6290708563952</v>
       </c>
       <c r="P31" t="n">
-        <v>915.7214909994686</v>
+        <v>915.7214909994681</v>
       </c>
       <c r="Q31" t="n">
-        <v>915.7214909994686</v>
+        <v>915.7214909994681</v>
       </c>
       <c r="R31" t="n">
-        <v>895.5968032398274</v>
+        <v>895.5968032398268</v>
       </c>
       <c r="S31" t="n">
-        <v>819.7318395817044</v>
+        <v>819.731839581704</v>
       </c>
       <c r="T31" t="n">
-        <v>734.8316927815049</v>
+        <v>734.8316927815046</v>
       </c>
       <c r="U31" t="n">
-        <v>590.6667966885555</v>
+        <v>590.6667966885551</v>
       </c>
       <c r="V31" t="n">
-        <v>479.9398855790448</v>
+        <v>479.9398855790445</v>
       </c>
       <c r="W31" t="n">
-        <v>335.7218372771337</v>
+        <v>335.7218372771334</v>
       </c>
       <c r="X31" t="n">
-        <v>252.0615838793704</v>
+        <v>252.0615838793701</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.8676800417495</v>
+        <v>175.8676800417493</v>
       </c>
     </row>
     <row r="32">
@@ -6683,46 +6683,46 @@
         <v>1020.004665866434</v>
       </c>
       <c r="E32" t="n">
-        <v>788.0625460033955</v>
+        <v>788.0625460033953</v>
       </c>
       <c r="F32" t="n">
-        <v>531.7003981350508</v>
+        <v>531.7003981350506</v>
       </c>
       <c r="G32" t="n">
-        <v>268.2093529188564</v>
+        <v>268.2093529188562</v>
       </c>
       <c r="H32" t="n">
-        <v>86.90206883864641</v>
+        <v>86.90206883864644</v>
       </c>
       <c r="I32" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="J32" t="n">
-        <v>247.8467460127159</v>
+        <v>247.8467460127158</v>
       </c>
       <c r="K32" t="n">
-        <v>432.525752580381</v>
+        <v>491.5333076387678</v>
       </c>
       <c r="L32" t="n">
-        <v>865.5658525055267</v>
+        <v>924.5734075639134</v>
       </c>
       <c r="M32" t="n">
-        <v>1345.493872624985</v>
+        <v>1252.541043963401</v>
       </c>
       <c r="N32" t="n">
-        <v>1815.211576988725</v>
+        <v>1722.25874832714</v>
       </c>
       <c r="O32" t="n">
-        <v>2221.092836693042</v>
+        <v>2128.140008031458</v>
       </c>
       <c r="P32" t="n">
-        <v>2459.877191568974</v>
+        <v>2459.877191568975</v>
       </c>
       <c r="Q32" t="n">
         <v>2669.66306333958</v>
       </c>
       <c r="R32" t="n">
-        <v>2712.489995844037</v>
+        <v>2712.489995844038</v>
       </c>
       <c r="S32" t="n">
         <v>2671.17604343326</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>690.4623017671965</v>
+        <v>380.3707116846115</v>
       </c>
       <c r="C33" t="n">
-        <v>641.5286017163533</v>
+        <v>349.3576304971729</v>
       </c>
       <c r="D33" t="n">
-        <v>493.9402950752971</v>
+        <v>201.7693238561167</v>
       </c>
       <c r="E33" t="n">
-        <v>336.3307660781518</v>
+        <v>199.2055899002639</v>
       </c>
       <c r="F33" t="n">
-        <v>191.3749760947686</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="G33" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="H33" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="I33" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="J33" t="n">
         <v>86.83029641081907</v>
@@ -6819,10 +6819,10 @@
         <v>959.668597176944</v>
       </c>
       <c r="X33" t="n">
-        <v>908.187493623814</v>
+        <v>753.1416985825215</v>
       </c>
       <c r="Y33" t="n">
-        <v>857.504852888757</v>
+        <v>547.4132628061719</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.57255901954832</v>
+        <v>70.57255901954851</v>
       </c>
       <c r="C34" t="n">
-        <v>56.59153291821222</v>
+        <v>56.59153291821237</v>
       </c>
       <c r="D34" t="n">
-        <v>61.03640578880884</v>
+        <v>61.03640578880897</v>
       </c>
       <c r="E34" t="n">
-        <v>67.49191157731245</v>
+        <v>67.49191157731255</v>
       </c>
       <c r="F34" t="n">
-        <v>74.75486410157679</v>
+        <v>74.75486410157686</v>
       </c>
       <c r="G34" t="n">
-        <v>60.44325634432156</v>
+        <v>60.4432563443216</v>
       </c>
       <c r="H34" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="I34" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="J34" t="n">
-        <v>54.24979991688075</v>
+        <v>54.24979991688076</v>
       </c>
       <c r="K34" t="n">
-        <v>65.5900678471836</v>
+        <v>109.3022039358888</v>
       </c>
       <c r="L34" t="n">
-        <v>135.9053216168109</v>
+        <v>331.5778414254868</v>
       </c>
       <c r="M34" t="n">
-        <v>220.6357974131844</v>
+        <v>416.3083172218603</v>
       </c>
       <c r="N34" t="n">
-        <v>308.492833771886</v>
+        <v>656.1257373005326</v>
       </c>
       <c r="O34" t="n">
-        <v>526.266814087091</v>
+        <v>721.9393338957668</v>
       </c>
       <c r="P34" t="n">
-        <v>711.3196179501347</v>
+        <v>755.0317540388397</v>
       </c>
       <c r="Q34" t="n">
-        <v>755.0317540388392</v>
+        <v>755.0317540388397</v>
       </c>
       <c r="R34" t="n">
-        <v>745.1885087260222</v>
+        <v>745.1885087260226</v>
       </c>
       <c r="S34" t="n">
-        <v>679.6049875147235</v>
+        <v>679.6049875147239</v>
       </c>
       <c r="T34" t="n">
-        <v>604.9862831613483</v>
+        <v>604.9862831613486</v>
       </c>
       <c r="U34" t="n">
-        <v>471.1028295152231</v>
+        <v>471.1028295152234</v>
       </c>
       <c r="V34" t="n">
-        <v>370.6573608525367</v>
+        <v>370.657360852537</v>
       </c>
       <c r="W34" t="n">
-        <v>236.7207549974499</v>
+        <v>236.7207549974501</v>
       </c>
       <c r="X34" t="n">
-        <v>163.3419440465108</v>
+        <v>163.3419440465111</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.4294826557142</v>
+        <v>97.42948265571441</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1154.796021245911</v>
+        <v>1154.796021245909</v>
       </c>
       <c r="C35" t="n">
-        <v>979.3516323967963</v>
+        <v>979.3516323967951</v>
       </c>
       <c r="D35" t="n">
-        <v>814.3924586227772</v>
+        <v>814.3924586227763</v>
       </c>
       <c r="E35" t="n">
-        <v>622.6521707066479</v>
+        <v>622.652170706647</v>
       </c>
       <c r="F35" t="n">
-        <v>406.4918547852122</v>
+        <v>406.4918547852112</v>
       </c>
       <c r="G35" t="n">
-        <v>183.2026415159269</v>
+        <v>183.2026415159268</v>
       </c>
       <c r="H35" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="I35" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="J35" t="n">
-        <v>275.0959509696264</v>
+        <v>83.73375175849011</v>
       </c>
       <c r="K35" t="n">
-        <v>651.1371567484277</v>
+        <v>268.4127583261553</v>
       </c>
       <c r="L35" t="n">
-        <v>932.2168729536027</v>
+        <v>740.8546737424665</v>
       </c>
       <c r="M35" t="n">
         <v>1260.18450935309</v>
@@ -6956,31 +6956,31 @@
         <v>2011.639505798752</v>
       </c>
       <c r="Q35" t="n">
-        <v>2069.464993849387</v>
+        <v>2104.85946913129</v>
       </c>
       <c r="R35" t="n">
         <v>2104.85946913129</v>
       </c>
       <c r="S35" t="n">
-        <v>2103.747348667422</v>
+        <v>2103.747348667421</v>
       </c>
       <c r="T35" t="n">
         <v>2076.003107285898</v>
       </c>
       <c r="U35" t="n">
-        <v>2017.273461453261</v>
+        <v>2017.273461453259</v>
       </c>
       <c r="V35" t="n">
-        <v>1880.669349529826</v>
+        <v>1880.669349529825</v>
       </c>
       <c r="W35" t="n">
-        <v>1721.846151264942</v>
+        <v>1721.846151264941</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.486102363074</v>
+        <v>1542.486102363073</v>
       </c>
       <c r="Y35" t="n">
-        <v>1347.140727582351</v>
+        <v>1347.140727582349</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>368.2181011503565</v>
+        <v>368.218101150356</v>
       </c>
       <c r="C36" t="n">
-        <v>195.4649860721736</v>
+        <v>195.4649860721732</v>
       </c>
       <c r="D36" t="n">
         <v>187.0529793660089</v>
@@ -7002,28 +7002,28 @@
         <v>187.0529793660089</v>
       </c>
       <c r="F36" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="G36" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="H36" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="I36" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="J36" t="n">
-        <v>74.67768587656428</v>
+        <v>74.67768587656411</v>
       </c>
       <c r="K36" t="n">
         <v>256.9685569621183</v>
       </c>
       <c r="L36" t="n">
-        <v>562.9307361905915</v>
+        <v>562.9307361905913</v>
       </c>
       <c r="M36" t="n">
-        <v>972.7743621212642</v>
+        <v>972.7743621212639</v>
       </c>
       <c r="N36" t="n">
         <v>1408.864061305983</v>
@@ -7047,19 +7047,19 @@
         <v>1661.190268144236</v>
       </c>
       <c r="U36" t="n">
-        <v>1434.281721783755</v>
+        <v>1434.281721783754</v>
       </c>
       <c r="V36" t="n">
-        <v>1200.030478309356</v>
+        <v>1200.030478309355</v>
       </c>
       <c r="W36" t="n">
-        <v>947.515986642689</v>
+        <v>947.5159866426885</v>
       </c>
       <c r="X36" t="n">
-        <v>740.9890880482665</v>
+        <v>740.989088048266</v>
       </c>
       <c r="Y36" t="n">
-        <v>535.2606522719169</v>
+        <v>535.2606522719165</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="C37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="D37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="E37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="F37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="G37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="H37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="I37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="J37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
       <c r="K37" t="n">
-        <v>53.43745731292866</v>
+        <v>53.43745731292865</v>
       </c>
       <c r="L37" t="n">
-        <v>123.7527110825559</v>
+        <v>136.9498629311884</v>
       </c>
       <c r="M37" t="n">
-        <v>208.4831868789294</v>
+        <v>221.6803387275619</v>
       </c>
       <c r="N37" t="n">
-        <v>296.340223237631</v>
+        <v>309.5373750862634</v>
       </c>
       <c r="O37" t="n">
-        <v>362.1538198328652</v>
+        <v>375.3509716814976</v>
       </c>
       <c r="P37" t="n">
-        <v>395.2462399759381</v>
+        <v>408.4433918245704</v>
       </c>
       <c r="Q37" t="n">
-        <v>408.4433918245707</v>
+        <v>408.4433918245704</v>
       </c>
       <c r="R37" t="n">
-        <v>408.4433918245707</v>
+        <v>408.4433918245704</v>
       </c>
       <c r="S37" t="n">
-        <v>383.061702560181</v>
+        <v>383.0617025601808</v>
       </c>
       <c r="T37" t="n">
-        <v>348.6448301537148</v>
+        <v>348.6448301537147</v>
       </c>
       <c r="U37" t="n">
-        <v>254.9632084544986</v>
+        <v>254.9632084544985</v>
       </c>
       <c r="V37" t="n">
-        <v>194.7195717387212</v>
+        <v>194.7195717387211</v>
       </c>
       <c r="W37" t="n">
         <v>100.9847978305434</v>
       </c>
       <c r="X37" t="n">
-        <v>67.80781882651337</v>
+        <v>67.80781882651334</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.0971893826258</v>
+        <v>42.09718938262579</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>42.09718938262579</v>
       </c>
       <c r="I38" t="n">
-        <v>42.09718938262579</v>
+        <v>49.49651610356884</v>
       </c>
       <c r="J38" t="n">
-        <v>83.73375175849011</v>
+        <v>91.13307847943315</v>
       </c>
       <c r="K38" t="n">
-        <v>268.4127583261553</v>
+        <v>275.8120850470983</v>
       </c>
       <c r="L38" t="n">
-        <v>549.4924745313301</v>
+        <v>748.2540004634095</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4601109308177</v>
+        <v>1104.216785423857</v>
       </c>
       <c r="N38" t="n">
-        <v>1195.217431574586</v>
+        <v>1421.974106067626</v>
       </c>
       <c r="O38" t="n">
-        <v>1640.50050677007</v>
+        <v>1675.894982051973</v>
       </c>
       <c r="P38" t="n">
         <v>1855.671781869519</v>
@@ -7202,7 +7202,7 @@
         <v>2103.747348667421</v>
       </c>
       <c r="T38" t="n">
-        <v>2076.003107285898</v>
+        <v>2076.003107285897</v>
       </c>
       <c r="U38" t="n">
         <v>2017.27346145326</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>585.4066041111236</v>
+        <v>368.218101150356</v>
       </c>
       <c r="C39" t="n">
-        <v>412.6534890329407</v>
+        <v>368.218101150356</v>
       </c>
       <c r="D39" t="n">
         <v>265.0651823918846</v>
@@ -7251,7 +7251,7 @@
         <v>42.09718938262579</v>
       </c>
       <c r="J39" t="n">
-        <v>74.67768587656374</v>
+        <v>74.67768587656413</v>
       </c>
       <c r="K39" t="n">
         <v>256.9685569621179</v>
@@ -7284,19 +7284,19 @@
         <v>1661.190268144236</v>
       </c>
       <c r="U39" t="n">
-        <v>1629.529348771956</v>
+        <v>1434.281721783754</v>
       </c>
       <c r="V39" t="n">
-        <v>1395.278105297557</v>
+        <v>1200.030478309355</v>
       </c>
       <c r="W39" t="n">
-        <v>1142.76361363089</v>
+        <v>947.5159866426885</v>
       </c>
       <c r="X39" t="n">
-        <v>936.2367150364674</v>
+        <v>740.989088048266</v>
       </c>
       <c r="Y39" t="n">
-        <v>752.449155232684</v>
+        <v>535.2606522719165</v>
       </c>
     </row>
     <row r="40">
@@ -7330,22 +7330,22 @@
         <v>42.09718938262579</v>
       </c>
       <c r="J40" t="n">
-        <v>42.09718938262579</v>
+        <v>55.29434123125823</v>
       </c>
       <c r="K40" t="n">
-        <v>53.43745731292866</v>
+        <v>66.63460916156109</v>
       </c>
       <c r="L40" t="n">
-        <v>123.7527110825559</v>
+        <v>136.9498629311884</v>
       </c>
       <c r="M40" t="n">
-        <v>208.4831868789294</v>
+        <v>221.6803387275619</v>
       </c>
       <c r="N40" t="n">
-        <v>296.340223237631</v>
+        <v>309.5373750862634</v>
       </c>
       <c r="O40" t="n">
-        <v>362.1538198328652</v>
+        <v>375.3509716814976</v>
       </c>
       <c r="P40" t="n">
         <v>408.4433918245704</v>
@@ -7388,16 +7388,16 @@
         <v>1154.79602124591</v>
       </c>
       <c r="C41" t="n">
-        <v>979.3516323967954</v>
+        <v>979.351632396796</v>
       </c>
       <c r="D41" t="n">
-        <v>814.3924586227763</v>
+        <v>814.392458622777</v>
       </c>
       <c r="E41" t="n">
-        <v>622.6521707066471</v>
+        <v>622.6521707066478</v>
       </c>
       <c r="F41" t="n">
-        <v>406.4918547852114</v>
+        <v>406.4918547852121</v>
       </c>
       <c r="G41" t="n">
         <v>183.2026415159268</v>
@@ -7415,19 +7415,19 @@
         <v>268.4127583261553</v>
       </c>
       <c r="L41" t="n">
-        <v>584.8869498132331</v>
+        <v>549.4924745313301</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.216785423857</v>
+        <v>877.4601109308177</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.336305278762</v>
+        <v>1195.217431574586</v>
       </c>
       <c r="O41" t="n">
-        <v>1867.257181263109</v>
+        <v>1640.50050677007</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.033981080655</v>
+        <v>1855.671781869519</v>
       </c>
       <c r="Q41" t="n">
         <v>2104.85946913129</v>
@@ -7439,22 +7439,22 @@
         <v>2103.747348667421</v>
       </c>
       <c r="T41" t="n">
-        <v>2076.003107285897</v>
+        <v>2076.003107285898</v>
       </c>
       <c r="U41" t="n">
         <v>2017.27346145326</v>
       </c>
       <c r="V41" t="n">
-        <v>1880.669349529825</v>
+        <v>1880.669349529826</v>
       </c>
       <c r="W41" t="n">
         <v>1721.846151264942</v>
       </c>
       <c r="X41" t="n">
-        <v>1542.486102363073</v>
+        <v>1542.486102363074</v>
       </c>
       <c r="Y41" t="n">
-        <v>1347.140727582349</v>
+        <v>1347.14072758235</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.04814009901</v>
+        <v>507.3944010852479</v>
       </c>
       <c r="C42" t="n">
-        <v>347.2950250208272</v>
+        <v>334.6412860070651</v>
       </c>
       <c r="D42" t="n">
-        <v>199.7067183797711</v>
+        <v>187.0529793660089</v>
       </c>
       <c r="E42" t="n">
-        <v>42.09718938262579</v>
+        <v>187.0529793660089</v>
       </c>
       <c r="F42" t="n">
         <v>42.09718938262579</v>
@@ -7488,16 +7488,16 @@
         <v>42.09718938262579</v>
       </c>
       <c r="J42" t="n">
-        <v>74.67768587656406</v>
+        <v>74.67768587656374</v>
       </c>
       <c r="K42" t="n">
-        <v>256.9685569621181</v>
+        <v>256.9685569621179</v>
       </c>
       <c r="L42" t="n">
-        <v>562.9307361905912</v>
+        <v>562.930736190591</v>
       </c>
       <c r="M42" t="n">
-        <v>972.7743621212639</v>
+        <v>972.7743621212637</v>
       </c>
       <c r="N42" t="n">
         <v>1408.864061305983</v>
@@ -7512,28 +7512,28 @@
         <v>2104.85946913129</v>
       </c>
       <c r="R42" t="n">
-        <v>2026.096197124431</v>
+        <v>2104.85946913129</v>
       </c>
       <c r="S42" t="n">
-        <v>2012.31032851348</v>
+        <v>1939.243561571684</v>
       </c>
       <c r="T42" t="n">
-        <v>1813.02030709289</v>
+        <v>1739.953540151095</v>
       </c>
       <c r="U42" t="n">
-        <v>1586.111760732408</v>
+        <v>1513.044993790613</v>
       </c>
       <c r="V42" t="n">
-        <v>1351.860517258009</v>
+        <v>1339.206778244247</v>
       </c>
       <c r="W42" t="n">
-        <v>1099.346025591342</v>
+        <v>1086.69228657758</v>
       </c>
       <c r="X42" t="n">
-        <v>892.81912699692</v>
+        <v>880.165387983158</v>
       </c>
       <c r="Y42" t="n">
-        <v>687.0906912205704</v>
+        <v>674.4369522068084</v>
       </c>
     </row>
     <row r="43">
@@ -7570,22 +7570,22 @@
         <v>42.09718938262579</v>
       </c>
       <c r="K43" t="n">
-        <v>53.43745731292866</v>
+        <v>53.43745731292865</v>
       </c>
       <c r="L43" t="n">
         <v>123.7527110825559</v>
       </c>
       <c r="M43" t="n">
-        <v>208.4831868789294</v>
+        <v>221.6803387275619</v>
       </c>
       <c r="N43" t="n">
-        <v>296.340223237631</v>
+        <v>309.5373750862634</v>
       </c>
       <c r="O43" t="n">
-        <v>362.1538198328652</v>
+        <v>375.3509716814976</v>
       </c>
       <c r="P43" t="n">
-        <v>395.2462399759381</v>
+        <v>408.4433918245704</v>
       </c>
       <c r="Q43" t="n">
         <v>408.4433918245704</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.79602124591</v>
+        <v>1154.796021245909</v>
       </c>
       <c r="C44" t="n">
-        <v>979.3516323967962</v>
+        <v>979.3516323967951</v>
       </c>
       <c r="D44" t="n">
-        <v>814.3924586227772</v>
+        <v>814.3924586227761</v>
       </c>
       <c r="E44" t="n">
-        <v>622.6521707066479</v>
+        <v>622.6521707066468</v>
       </c>
       <c r="F44" t="n">
-        <v>406.4918547852121</v>
+        <v>406.4918547852111</v>
       </c>
       <c r="G44" t="n">
-        <v>183.2026415159268</v>
+        <v>183.2026415159269</v>
       </c>
       <c r="H44" t="n">
         <v>42.09718938262579</v>
       </c>
       <c r="I44" t="n">
-        <v>42.09718938262579</v>
+        <v>49.49651610356882</v>
       </c>
       <c r="J44" t="n">
-        <v>83.73375175849011</v>
+        <v>282.4952776905695</v>
       </c>
       <c r="K44" t="n">
-        <v>268.4127583261553</v>
+        <v>604.3028840347076</v>
       </c>
       <c r="L44" t="n">
-        <v>549.4924745313301</v>
+        <v>885.3826002398824</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4601109308177</v>
+        <v>1213.35023663937</v>
       </c>
       <c r="N44" t="n">
-        <v>1386.579630785723</v>
+        <v>1531.107557283139</v>
       </c>
       <c r="O44" t="n">
-        <v>1640.50050677007</v>
+        <v>1785.028433267486</v>
       </c>
       <c r="P44" t="n">
-        <v>1855.671781869519</v>
+        <v>1964.805233085032</v>
       </c>
       <c r="Q44" t="n">
-        <v>2104.85946913129</v>
+        <v>2022.630721135667</v>
       </c>
       <c r="R44" t="n">
         <v>2104.85946913129</v>
@@ -7682,16 +7682,16 @@
         <v>2017.27346145326</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.669349529826</v>
+        <v>1880.669349529825</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.846151264942</v>
+        <v>1721.846151264941</v>
       </c>
       <c r="X44" t="n">
-        <v>1542.486102363074</v>
+        <v>1542.486102363073</v>
       </c>
       <c r="Y44" t="n">
-        <v>1347.14072758235</v>
+        <v>1347.140727582349</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>831.4830749541497</v>
+        <v>368.218101150356</v>
       </c>
       <c r="C45" t="n">
-        <v>658.7299598759669</v>
+        <v>368.218101150356</v>
       </c>
       <c r="D45" t="n">
-        <v>511.1416532349108</v>
+        <v>368.218101150356</v>
       </c>
       <c r="E45" t="n">
-        <v>511.1416532349108</v>
+        <v>257.2345685863893</v>
       </c>
       <c r="F45" t="n">
-        <v>366.1858632515276</v>
+        <v>257.2345685863893</v>
       </c>
       <c r="G45" t="n">
-        <v>229.0606870736398</v>
+        <v>120.1093924085015</v>
       </c>
       <c r="H45" t="n">
         <v>120.1093924085015</v>
@@ -7725,16 +7725,16 @@
         <v>42.09718938262579</v>
       </c>
       <c r="J45" t="n">
-        <v>74.67768587656413</v>
+        <v>74.67768587656383</v>
       </c>
       <c r="K45" t="n">
-        <v>256.9685569621179</v>
+        <v>256.9685569621181</v>
       </c>
       <c r="L45" t="n">
-        <v>562.930736190591</v>
+        <v>562.9307361905912</v>
       </c>
       <c r="M45" t="n">
-        <v>972.7743621212637</v>
+        <v>972.7743621212642</v>
       </c>
       <c r="N45" t="n">
         <v>1408.864061305983</v>
@@ -7758,19 +7758,19 @@
         <v>1661.190268144236</v>
       </c>
       <c r="U45" t="n">
-        <v>1507.051441611145</v>
+        <v>1434.281721783754</v>
       </c>
       <c r="V45" t="n">
-        <v>1468.047825124947</v>
+        <v>1200.030478309355</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.533333458281</v>
+        <v>947.5159866426885</v>
       </c>
       <c r="X45" t="n">
-        <v>1204.25406185206</v>
+        <v>740.989088048266</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.5256260757102</v>
+        <v>535.2606522719165</v>
       </c>
     </row>
     <row r="46">
@@ -7801,52 +7801,52 @@
         <v>42.09718938262579</v>
       </c>
       <c r="I46" t="n">
-        <v>42.09718938262579</v>
+        <v>55.29434123125846</v>
       </c>
       <c r="J46" t="n">
-        <v>42.09718938262579</v>
+        <v>55.29434123125846</v>
       </c>
       <c r="K46" t="n">
-        <v>53.43745731292866</v>
+        <v>66.63460916156131</v>
       </c>
       <c r="L46" t="n">
-        <v>123.7527110825559</v>
+        <v>136.9498629311886</v>
       </c>
       <c r="M46" t="n">
-        <v>208.4831868789294</v>
+        <v>221.6803387275621</v>
       </c>
       <c r="N46" t="n">
-        <v>296.340223237631</v>
+        <v>309.5373750862636</v>
       </c>
       <c r="O46" t="n">
-        <v>362.1538198328652</v>
+        <v>375.3509716814978</v>
       </c>
       <c r="P46" t="n">
-        <v>395.2462399759381</v>
+        <v>408.4433918245707</v>
       </c>
       <c r="Q46" t="n">
-        <v>395.2462399759381</v>
+        <v>408.4433918245707</v>
       </c>
       <c r="R46" t="n">
-        <v>408.4433918245704</v>
+        <v>408.4433918245707</v>
       </c>
       <c r="S46" t="n">
-        <v>383.0617025601808</v>
+        <v>383.061702560181</v>
       </c>
       <c r="T46" t="n">
-        <v>348.6448301537147</v>
+        <v>348.6448301537148</v>
       </c>
       <c r="U46" t="n">
-        <v>254.9632084544985</v>
+        <v>254.9632084544986</v>
       </c>
       <c r="V46" t="n">
-        <v>194.7195717387211</v>
+        <v>194.7195717387212</v>
       </c>
       <c r="W46" t="n">
         <v>100.9847978305434</v>
       </c>
       <c r="X46" t="n">
-        <v>67.80781882651334</v>
+        <v>67.80781882651337</v>
       </c>
       <c r="Y46" t="n">
         <v>42.09718938262579</v>
@@ -7982,10 +7982,10 @@
         <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>240.0672847992869</v>
       </c>
       <c r="M2" t="n">
-        <v>234.7826076001403</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
         <v>238.5325024105071</v>
@@ -8064,10 +8064,10 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>152.8352559362299</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>142.312742143512</v>
       </c>
       <c r="O3" t="n">
         <v>153.8861037371642</v>
@@ -8140,10 +8140,10 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>139.6451103377855</v>
+        <v>146.3673247780382</v>
       </c>
       <c r="M4" t="n">
-        <v>150.3074047527458</v>
+        <v>143.5851903124931</v>
       </c>
       <c r="N4" t="n">
         <v>139.3481712574333</v>
@@ -8766,13 +8766,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>98.22508433590565</v>
+        <v>98.22508433590563</v>
       </c>
       <c r="K12" t="n">
-        <v>90.91165347737048</v>
+        <v>215.6066048757708</v>
       </c>
       <c r="L12" t="n">
-        <v>201.316204222611</v>
+        <v>76.62125282421061</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>98.22508433590563</v>
+        <v>98.22508433590565</v>
       </c>
       <c r="K18" t="n">
-        <v>215.6066048757708</v>
+        <v>90.91165347737048</v>
       </c>
       <c r="L18" t="n">
-        <v>76.62125282421061</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>299.9755114070134</v>
       </c>
       <c r="N18" t="n">
         <v>477.5733129732285</v>
@@ -9477,16 +9477,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>98.22508433590565</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>90.91165347737048</v>
       </c>
       <c r="L21" t="n">
-        <v>76.62125282421063</v>
+        <v>201.316204222611</v>
       </c>
       <c r="M21" t="n">
-        <v>391.9864322645695</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>477.5733129732285</v>
@@ -9720,13 +9720,13 @@
         <v>90.91165347737048</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>201.3162042226119</v>
       </c>
       <c r="M24" t="n">
-        <v>299.9755114070134</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>477.5733129732285</v>
+        <v>477.5733129732288</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540248</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>275.0438464930814</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540248</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11376,7 +11376,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930814</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>192.4777350595692</v>
+        <v>245.0795465677586</v>
       </c>
       <c r="D11" t="n">
         <v>234.6991836434144</v>
@@ -23273,7 +23273,7 @@
         <v>292.445922743728</v>
       </c>
       <c r="H11" t="n">
-        <v>211.0839992191036</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>158.4821877109139</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.93769816528103</v>
+        <v>17.93769816527999</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>158.4821877109141</v>
       </c>
       <c r="C14" t="n">
-        <v>192.4777350595688</v>
+        <v>245.0795465677587</v>
       </c>
       <c r="D14" t="n">
         <v>234.6991836434144</v>
       </c>
       <c r="E14" t="n">
-        <v>261.2124866441034</v>
+        <v>261.2124866441035</v>
       </c>
       <c r="F14" t="n">
-        <v>285.3883143693568</v>
+        <v>285.3883143693569</v>
       </c>
       <c r="G14" t="n">
         <v>292.445922743728</v>
       </c>
       <c r="H14" t="n">
-        <v>211.0839992191035</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.93769816528</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.93769816528055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>12220.88444103447</v>
       </c>
       <c r="E3" t="n">
-        <v>307192.8178907305</v>
+        <v>307192.8178907306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82803.00706838822</v>
+        <v>82803.00706838816</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90945.90948627303</v>
+        <v>90945.90948627293</v>
       </c>
       <c r="M3" t="n">
-        <v>85031.75638909997</v>
+        <v>85031.75638910003</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31850.36018643069</v>
+        <v>31850.36018643073</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,28 +26430,28 @@
         <v>215677.7248298867</v>
       </c>
       <c r="G4" t="n">
-        <v>282782.3596005107</v>
+        <v>282782.3596005106</v>
       </c>
       <c r="H4" t="n">
         <v>282782.3596005106</v>
       </c>
       <c r="I4" t="n">
-        <v>282782.3596005106</v>
+        <v>282782.3596005107</v>
       </c>
       <c r="J4" t="n">
         <v>277290.3190990467</v>
       </c>
       <c r="K4" t="n">
-        <v>277290.3190990468</v>
+        <v>277290.3190990467</v>
       </c>
       <c r="L4" t="n">
         <v>277087.4294622687</v>
       </c>
       <c r="M4" t="n">
+        <v>276361.8801789962</v>
+      </c>
+      <c r="N4" t="n">
         <v>276361.8801789961</v>
-      </c>
-      <c r="N4" t="n">
-        <v>276361.8801789962</v>
       </c>
       <c r="O4" t="n">
         <v>276361.8801789962</v>
@@ -26488,16 +26488,16 @@
         <v>47187.92507143003</v>
       </c>
       <c r="I5" t="n">
-        <v>47187.92507143003</v>
+        <v>47187.92507143004</v>
       </c>
       <c r="J5" t="n">
+        <v>58399.58450296819</v>
+      </c>
+      <c r="K5" t="n">
         <v>58399.5845029682</v>
       </c>
-      <c r="K5" t="n">
-        <v>58399.58450296818</v>
-      </c>
       <c r="L5" t="n">
-        <v>56863.28252312256</v>
+        <v>56863.28252312257</v>
       </c>
       <c r="M5" t="n">
         <v>50973.22904893405</v>
@@ -26509,7 +26509,7 @@
         <v>50973.22904893405</v>
       </c>
       <c r="P5" t="n">
-        <v>50973.22904893405</v>
+        <v>50973.22904893404</v>
       </c>
     </row>
     <row r="6">
@@ -26528,37 +26528,37 @@
         <v>-418018.3584728555</v>
       </c>
       <c r="E6" t="n">
-        <v>-561357.0102905068</v>
+        <v>-561652.0707730911</v>
       </c>
       <c r="F6" t="n">
-        <v>-254164.1923997764</v>
+        <v>-254459.2528823604</v>
       </c>
       <c r="G6" t="n">
-        <v>-412773.2917403289</v>
+        <v>-412773.2917403288</v>
       </c>
       <c r="H6" t="n">
-        <v>-329970.2846719406</v>
+        <v>-329970.2846719407</v>
       </c>
       <c r="I6" t="n">
         <v>-329970.2846719407</v>
       </c>
       <c r="J6" t="n">
-        <v>-449374.0373964936</v>
+        <v>-449374.0373964935</v>
       </c>
       <c r="K6" t="n">
         <v>-335689.9036020149</v>
       </c>
       <c r="L6" t="n">
-        <v>-424896.6214716643</v>
+        <v>-424896.6214716642</v>
       </c>
       <c r="M6" t="n">
-        <v>-412366.8656170302</v>
+        <v>-412366.8656170303</v>
       </c>
       <c r="N6" t="n">
-        <v>-327335.1092279303</v>
+        <v>-327335.1092279302</v>
       </c>
       <c r="O6" t="n">
-        <v>-359185.4694143609</v>
+        <v>-359185.469414361</v>
       </c>
       <c r="P6" t="n">
         <v>-327335.1092279302</v>
@@ -26698,7 +26698,7 @@
         <v>121.905549111184</v>
       </c>
       <c r="G2" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="H2" t="n">
         <v>225.4093079466692</v>
@@ -26765,19 +26765,19 @@
         <v>125.1942702935799</v>
       </c>
       <c r="L3" t="n">
-        <v>125.1942702935799</v>
+        <v>125.1942702935798</v>
       </c>
       <c r="M3" t="n">
-        <v>125.1942702935799</v>
+        <v>125.1942702935798</v>
       </c>
       <c r="N3" t="n">
-        <v>125.1942702935799</v>
+        <v>125.1942702935798</v>
       </c>
       <c r="O3" t="n">
-        <v>125.1942702935799</v>
+        <v>125.1942702935798</v>
       </c>
       <c r="P3" t="n">
-        <v>125.1942702935799</v>
+        <v>125.1942702935798</v>
       </c>
     </row>
     <row r="4">
@@ -26808,19 +26808,19 @@
         <v>419.5518892970634</v>
       </c>
       <c r="I4" t="n">
-        <v>419.5518892970634</v>
+        <v>419.5518892970637</v>
       </c>
       <c r="J4" t="n">
         <v>717.4647532218164</v>
       </c>
       <c r="K4" t="n">
-        <v>717.4647532218163</v>
+        <v>717.4647532218164</v>
       </c>
       <c r="L4" t="n">
-        <v>678.1224989610093</v>
+        <v>678.1224989610095</v>
       </c>
       <c r="M4" t="n">
-        <v>526.2148672828225</v>
+        <v>526.2148672828224</v>
       </c>
       <c r="N4" t="n">
         <v>526.2148672828224</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>103.5037588354853</v>
+        <v>103.5037588354852</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.81295023303836</v>
+        <v>39.81295023303841</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>113.6823868578413</v>
+        <v>113.6823868578412</v>
       </c>
       <c r="M2" t="n">
-        <v>39.79981362743985</v>
+        <v>39.79981362743999</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.81295023303836</v>
+        <v>39.81295023303841</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>312.767629328584</v>
+        <v>312.7676293285836</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>213.4472379542387</v>
+        <v>213.4472379542385</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.5037588354853</v>
+        <v>103.5037588354852</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.81295023303836</v>
+        <v>39.81295023303841</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>368.8616445875641</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -27427,7 +27427,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>191.0101863197083</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27436,13 +27436,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>313.6784561186884</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>356.0068337273385</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
         <v>380.8968578640824</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>152.2880482426505</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>81.61090239339694</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>154.1068485018135</v>
       </c>
       <c r="T3" t="n">
-        <v>183.5277665044377</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -27518,13 +27518,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>235.1345813461691</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>189.6068642046473</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.8163860147551</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.90593447201725</v>
+        <v>66.6766225081539</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>158.5363822659514</v>
       </c>
       <c r="S4" t="n">
         <v>207.5026415575916</v>
       </c>
       <c r="T4" t="n">
-        <v>213.4777005876767</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V4" t="n">
-        <v>252.9363510669392</v>
+        <v>238.0815856631082</v>
       </c>
       <c r="W4" t="n">
         <v>286.0925768874155</v>
@@ -27603,7 +27603,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.6645965000739</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>352.1303302751117</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -27625,7 +27625,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>392.4390980767099</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>199.4340939809706</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -27667,16 +27667,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>209.8810398287261</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>313.6784561186884</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>335.6753515967237</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27695,7 +27695,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>157.9415065597067</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>79.84021435726029</v>
       </c>
       <c r="S6" t="n">
         <v>154.1068485018135</v>
@@ -27752,10 +27752,10 @@
         <v>209.8024116633703</v>
       </c>
       <c r="V6" t="n">
-        <v>217.0539656358242</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>236.9052693823058</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.0836914906838</v>
+        <v>165.2289260868529</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>152.4817875273714</v>
       </c>
       <c r="D7" t="n">
         <v>149.0055665145194</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.6766225081539</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>158.5363822659514</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>207.5026415575916</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27837,7 +27837,7 @@
         <v>271.2378114835846</v>
       </c>
       <c r="X7" t="n">
-        <v>226.1403599323093</v>
+        <v>213.056282564615</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27853,10 +27853,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>312.7880760143047</v>
       </c>
       <c r="D8" t="n">
-        <v>302.4077130899605</v>
+        <v>331.6759038529195</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27874,7 +27874,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>197.3770111601791</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>274.3362018578815</v>
       </c>
       <c r="W8" t="n">
-        <v>296.3330973359167</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.6353906897318</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27944,7 +27944,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>81.82619054040443</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>46.95824484047818</v>
       </c>
       <c r="S9" t="n">
         <v>114.7645942410065</v>
@@ -27992,13 +27992,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>195.7923270853622</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>113.1395332665644</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
@@ -28059,25 +28059,25 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>212.010398343813</v>
+        <v>174.1354463268698</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>269.7302027433695</v>
       </c>
       <c r="V10" t="n">
-        <v>252.9363510669392</v>
+        <v>198.7393314023013</v>
       </c>
       <c r="W10" t="n">
-        <v>231.8955572227777</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.7486738677682</v>
+        <v>164.5516542031303</v>
       </c>
     </row>
     <row r="11">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>121.905549111184</v>
-      </c>
-      <c r="C12" t="n">
-        <v>112.0762853588556</v>
       </c>
       <c r="D12" t="n">
         <v>121.905549111184</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>112.0762853588552</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>121.905549111184</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28409,10 +28409,10 @@
         <v>121.905549111184</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>121.905549111184</v>
-      </c>
-      <c r="E15" t="n">
-        <v>112.0762853588552</v>
       </c>
       <c r="F15" t="n">
         <v>121.905549111184</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>112.0762853588555</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,13 +28463,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>121.905549111184</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>121.905549111184</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="C17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="D17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="E17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="F17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="G17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="H17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="I17" t="n">
         <v>185.8210833234276</v>
@@ -28618,19 +28618,19 @@
         <v>220.7619496860278</v>
       </c>
       <c r="U17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="V17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="W17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="X17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.753924416109</v>
       </c>
       <c r="H18" t="n">
         <v>107.8617817184869</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>192.7276920049863</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="X18" t="n">
-        <v>159.9344869860782</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>146.9693230903354</v>
       </c>
       <c r="J19" t="n">
-        <v>72.87760164789088</v>
+        <v>72.8776016478909</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,22 +28773,22 @@
         <v>218.4230230900653</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="U19" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="V19" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="W19" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="X19" t="n">
-        <v>225.4093079466693</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.66167253497116</v>
+        <v>20.66167253497179</v>
       </c>
     </row>
     <row r="20">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>107.8617817184869</v>
       </c>
       <c r="I21" t="n">
-        <v>77.23208099561693</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2971212063838</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6394608968766</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>179.5578343720193</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>171.6316455279833</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -29007,13 +29007,13 @@
         <v>163.2401499505684</v>
       </c>
       <c r="S22" t="n">
-        <v>218.4230230900653</v>
+        <v>20.33602175726878</v>
       </c>
       <c r="T22" t="n">
         <v>225.4093079466692</v>
       </c>
       <c r="U22" t="n">
-        <v>27.32230661387257</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="V22" t="n">
         <v>225.4093079466692</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -29132,7 +29132,7 @@
         <v>135.753924416109</v>
       </c>
       <c r="H24" t="n">
-        <v>107.8617817184869</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>77.23208099561693</v>
@@ -29168,13 +29168,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.217348113127</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>36.69425829781252</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>225.4093079466692</v>
@@ -29199,7 +29199,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>114.1587151322913</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -29250,7 +29250,7 @@
         <v>225.4093079466692</v>
       </c>
       <c r="U25" t="n">
-        <v>190.562456564441</v>
+        <v>225.4093079466692</v>
       </c>
       <c r="V25" t="n">
         <v>225.4093079466692</v>
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.9384769217782</v>
       </c>
       <c r="D27" t="n">
         <v>143.3167090685236</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.753924416109</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.8617817184869</v>
@@ -29402,10 +29402,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>7.184552505669302</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>143.3167090685236</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,22 +29454,22 @@
         <v>143.3167090685236</v>
       </c>
       <c r="J28" t="n">
-        <v>72.8776016478909</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="M28" t="n">
-        <v>141.1842784098967</v>
+        <v>70.74517098926469</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>143.3167090685236</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>143.3167090685236</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>72.52562228740287</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="E30" t="n">
-        <v>7.184552505669245</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.3167090685236</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.753924416109</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.97563928679011</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>143.3167090685236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,28 +29691,28 @@
         <v>143.3167090685236</v>
       </c>
       <c r="J31" t="n">
-        <v>72.8776016478909</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="L31" t="n">
-        <v>143.3167090685236</v>
+        <v>9.888805927746418</v>
       </c>
       <c r="M31" t="n">
         <v>143.3167090685236</v>
       </c>
       <c r="N31" t="n">
-        <v>80.32791334837987</v>
+        <v>143.3167090685236</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>143.3167090685236</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.85636506151762</v>
+        <v>60.85636506151761</v>
       </c>
       <c r="R31" t="n">
         <v>143.3167090685236</v>
@@ -29773,13 +29773,13 @@
         <v>153.4953370908796</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>59.60359096806761</v>
       </c>
       <c r="L32" t="n">
         <v>153.4953370908796</v>
       </c>
       <c r="M32" t="n">
-        <v>153.4953370908796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>153.4953370908796</v>
@@ -29788,7 +29788,7 @@
         <v>153.4953370908796</v>
       </c>
       <c r="P32" t="n">
-        <v>59.60359096806681</v>
+        <v>153.4953370908796</v>
       </c>
       <c r="Q32" t="n">
         <v>153.4953370908796</v>
@@ -29828,25 +29828,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>122.5812208770661</v>
+        <v>140.3226335518368</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>153.4953370908796</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.753924416109</v>
       </c>
       <c r="H33" t="n">
         <v>107.8617817184869</v>
       </c>
       <c r="I33" t="n">
-        <v>77.23208099561693</v>
+        <v>77.23208099561694</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>153.4953370908796</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>153.4953370908796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,28 +29928,28 @@
         <v>146.9693230903354</v>
       </c>
       <c r="J34" t="n">
-        <v>72.8776016478909</v>
+        <v>72.87760164789091</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>44.15367281687396</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>153.4953370908796</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>153.4953370908796</v>
       </c>
       <c r="O34" t="n">
-        <v>153.4953370908796</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>153.4953370908796</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.0100378783908</v>
+        <v>60.85636506151763</v>
       </c>
       <c r="R34" t="n">
         <v>153.4953370908796</v>
@@ -30007,17 +30007,17 @@
         <v>185.8210833234276</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>193.2951507183195</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>193.2951507183195</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
@@ -30028,10 +30028,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>35.75199523424519</v>
       </c>
       <c r="R35" t="n">
-        <v>145.9878045428452</v>
+        <v>110.2358093085993</v>
       </c>
       <c r="S35" t="n">
         <v>193.2951507183195</v>
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>137.7845369355425</v>
+        <v>137.7845369355429</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>13.33045641276006</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.18682147427781</v>
+        <v>60.85636506151762</v>
       </c>
       <c r="R37" t="n">
         <v>163.2401499505684</v>
@@ -30241,7 +30241,7 @@
         <v>193.2951507183195</v>
       </c>
       <c r="I38" t="n">
-        <v>185.8210833234276</v>
+        <v>193.2951507183195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30250,19 +30250,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>193.2951507183195</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>28.27792783935314</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>193.2951507183195</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>35.75199523424524</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>193.2951507183195</v>
@@ -30302,10 +30302,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>43.99103400375888</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>193.2951507183195</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.72146721284042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>146.9693230903354</v>
       </c>
       <c r="J40" t="n">
-        <v>72.8776016478909</v>
+        <v>86.20805806065094</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>13.33045641275994</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>60.85636506151762</v>
@@ -30487,22 +30487,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>35.75199523424538</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>193.2951507183195</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
+        <v>35.75199523424524</v>
+      </c>
+      <c r="Q41" t="n">
         <v>193.2951507183195</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>110.2358093085993</v>
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.753924416109</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.97563928679011</v>
       </c>
       <c r="S42" t="n">
-        <v>150.3117385591675</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>59.80889764875306</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.33045641276004</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.18682147427758</v>
+        <v>60.85636506151762</v>
       </c>
       <c r="R43" t="n">
         <v>163.2401499505684</v>
@@ -30715,13 +30715,13 @@
         <v>193.2951507183195</v>
       </c>
       <c r="I44" t="n">
-        <v>185.8210833234276</v>
+        <v>193.2951507183195</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>193.2951507183195</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>138.5137371479526</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,19 +30730,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>193.2951507183195</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>35.75199523424524</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>193.2951507183195</v>
-      </c>
-      <c r="R44" t="n">
-        <v>110.2358093085993</v>
       </c>
       <c r="S44" t="n">
         <v>193.2951507183195</v>
@@ -30776,22 +30776,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>46.15973646884684</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.8617817184869</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30830,16 +30830,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>72.04202262911667</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2951507183195</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>193.2951507183195</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>159.626858954046</v>
       </c>
       <c r="I46" t="n">
-        <v>146.9693230903354</v>
+        <v>160.2997795030957</v>
       </c>
       <c r="J46" t="n">
         <v>72.8776016478909</v>
@@ -30900,7 +30900,7 @@
         <v>60.85636506151762</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5706063633284</v>
+        <v>163.2401499505684</v>
       </c>
       <c r="S46" t="n">
         <v>193.2951507183195</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189138</v>
       </c>
       <c r="H11" t="n">
         <v>5.154355057865827</v>
@@ -31759,31 +31759,31 @@
         <v>19.40322454469644</v>
       </c>
       <c r="J11" t="n">
-        <v>42.71641084755669</v>
+        <v>42.7164108475567</v>
       </c>
       <c r="K11" t="n">
-        <v>64.02082677329432</v>
+        <v>64.02082677329433</v>
       </c>
       <c r="L11" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102156</v>
       </c>
       <c r="M11" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160829</v>
       </c>
       <c r="N11" t="n">
-        <v>89.80392616747415</v>
+        <v>89.80392616747416</v>
       </c>
       <c r="O11" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041171</v>
       </c>
       <c r="P11" t="n">
-        <v>72.374241451476</v>
+        <v>72.37424145147601</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081739</v>
       </c>
       <c r="R11" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227775</v>
       </c>
       <c r="S11" t="n">
         <v>11.46880174598976</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333606</v>
       </c>
       <c r="H12" t="n">
         <v>2.600733803645877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.271462469854738</v>
+        <v>9.27146246985474</v>
       </c>
       <c r="J12" t="n">
-        <v>25.44160166409438</v>
+        <v>25.44160166409439</v>
       </c>
       <c r="K12" t="n">
         <v>43.48374952262954</v>
       </c>
       <c r="L12" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116674</v>
       </c>
       <c r="M12" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000103</v>
       </c>
       <c r="N12" t="n">
-        <v>70.03674560508485</v>
+        <v>70.03674560508486</v>
       </c>
       <c r="O12" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977197</v>
       </c>
       <c r="P12" t="n">
-        <v>51.42177490605548</v>
+        <v>51.4217749060555</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.37409474173914</v>
+        <v>34.37409474173915</v>
       </c>
       <c r="R12" t="n">
         <v>16.71934047430111</v>
       </c>
       <c r="S12" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635006</v>
       </c>
       <c r="T12" t="n">
-        <v>1.085410701884904</v>
+        <v>1.085410701884905</v>
       </c>
       <c r="U12" t="n">
         <v>0.0177161703245632</v>
@@ -31911,10 +31911,10 @@
         <v>0.2257601595457998</v>
       </c>
       <c r="H13" t="n">
-        <v>2.007213054870839</v>
+        <v>2.00721305487084</v>
       </c>
       <c r="I13" t="n">
-        <v>6.789223707068235</v>
+        <v>6.789223707068237</v>
       </c>
       <c r="J13" t="n">
         <v>15.96124327988804</v>
@@ -31923,19 +31923,19 @@
         <v>26.22922580904837</v>
       </c>
       <c r="L13" t="n">
-        <v>33.56437862920009</v>
+        <v>33.5643786292001</v>
       </c>
       <c r="M13" t="n">
         <v>35.3889311913475</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54746150576773</v>
+        <v>34.54746150576774</v>
       </c>
       <c r="O13" t="n">
         <v>31.91017236925542</v>
       </c>
       <c r="P13" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452109</v>
       </c>
       <c r="Q13" t="n">
         <v>18.90433481433056</v>
@@ -31944,10 +31944,10 @@
         <v>10.15099771921387</v>
       </c>
       <c r="S13" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357255</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865989</v>
       </c>
       <c r="U13" t="n">
         <v>0.01231419052068</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5032935489189138</v>
+        <v>0.5032935489189136</v>
       </c>
       <c r="H17" t="n">
         <v>5.154355057865827</v>
@@ -32233,31 +32233,31 @@
         <v>19.40322454469644</v>
       </c>
       <c r="J17" t="n">
-        <v>42.7164108475567</v>
+        <v>42.71641084755669</v>
       </c>
       <c r="K17" t="n">
-        <v>64.02082677329433</v>
+        <v>64.02082677329432</v>
       </c>
       <c r="L17" t="n">
-        <v>79.42349672102156</v>
+        <v>79.42349672102154</v>
       </c>
       <c r="M17" t="n">
-        <v>88.37394337160829</v>
+        <v>88.37394337160826</v>
       </c>
       <c r="N17" t="n">
-        <v>89.80392616747416</v>
+        <v>89.80392616747415</v>
       </c>
       <c r="O17" t="n">
-        <v>84.79930094041171</v>
+        <v>84.79930094041168</v>
       </c>
       <c r="P17" t="n">
-        <v>72.37424145147601</v>
+        <v>72.374241451476</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.35004123081739</v>
+        <v>54.35004123081738</v>
       </c>
       <c r="R17" t="n">
-        <v>31.61501339227775</v>
+        <v>31.61501339227774</v>
       </c>
       <c r="S17" t="n">
         <v>11.46880174598976</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2692857889333606</v>
+        <v>0.2692857889333605</v>
       </c>
       <c r="H18" t="n">
         <v>2.600733803645877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.27146246985474</v>
+        <v>9.271462469854738</v>
       </c>
       <c r="J18" t="n">
-        <v>25.44160166409439</v>
+        <v>25.44160166409438</v>
       </c>
       <c r="K18" t="n">
         <v>43.48374952262954</v>
       </c>
       <c r="L18" t="n">
-        <v>58.46926746116674</v>
+        <v>58.46926746116672</v>
       </c>
       <c r="M18" t="n">
-        <v>68.23087731000103</v>
+        <v>68.23087731000102</v>
       </c>
       <c r="N18" t="n">
-        <v>70.03674560508486</v>
+        <v>70.03674560508485</v>
       </c>
       <c r="O18" t="n">
-        <v>64.06993943977197</v>
+        <v>64.06993943977196</v>
       </c>
       <c r="P18" t="n">
-        <v>51.4217749060555</v>
+        <v>51.42177490605548</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.37409474173915</v>
+        <v>34.37409474173914</v>
       </c>
       <c r="R18" t="n">
         <v>16.71934047430111</v>
       </c>
       <c r="S18" t="n">
-        <v>5.001865421635006</v>
+        <v>5.001865421635004</v>
       </c>
       <c r="T18" t="n">
-        <v>1.085410701884905</v>
+        <v>1.085410701884904</v>
       </c>
       <c r="U18" t="n">
         <v>0.0177161703245632</v>
@@ -32385,10 +32385,10 @@
         <v>0.2257601595457998</v>
       </c>
       <c r="H19" t="n">
-        <v>2.00721305487084</v>
+        <v>2.007213054870839</v>
       </c>
       <c r="I19" t="n">
-        <v>6.789223707068237</v>
+        <v>6.789223707068235</v>
       </c>
       <c r="J19" t="n">
         <v>15.96124327988804</v>
@@ -32397,19 +32397,19 @@
         <v>26.22922580904837</v>
       </c>
       <c r="L19" t="n">
-        <v>33.5643786292001</v>
+        <v>33.56437862920009</v>
       </c>
       <c r="M19" t="n">
         <v>35.3889311913475</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54746150576774</v>
+        <v>34.54746150576773</v>
       </c>
       <c r="O19" t="n">
         <v>31.91017236925542</v>
       </c>
       <c r="P19" t="n">
-        <v>27.30466511452109</v>
+        <v>27.30466511452108</v>
       </c>
       <c r="Q19" t="n">
         <v>18.90433481433056</v>
@@ -32418,10 +32418,10 @@
         <v>10.15099771921387</v>
       </c>
       <c r="S19" t="n">
-        <v>3.934383871357255</v>
+        <v>3.934383871357254</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9646115907865989</v>
+        <v>0.9646115907865986</v>
       </c>
       <c r="U19" t="n">
         <v>0.01231419052068</v>
@@ -32938,7 +32938,7 @@
         <v>0.5032935489189136</v>
       </c>
       <c r="H26" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865827</v>
       </c>
       <c r="I26" t="n">
         <v>19.40322454469644</v>
@@ -32956,13 +32956,13 @@
         <v>88.37394337160826</v>
       </c>
       <c r="N26" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747415</v>
       </c>
       <c r="O26" t="n">
         <v>84.79930094041168</v>
       </c>
       <c r="P26" t="n">
-        <v>72.37424145147598</v>
+        <v>72.374241451476</v>
       </c>
       <c r="Q26" t="n">
         <v>54.35004123081738</v>
@@ -32977,7 +32977,7 @@
         <v>2.203167510392546</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04026348391351308</v>
+        <v>0.04026348391351309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,16 +33017,16 @@
         <v>0.2692857889333605</v>
       </c>
       <c r="H27" t="n">
-        <v>2.600733803645876</v>
+        <v>2.600733803645877</v>
       </c>
       <c r="I27" t="n">
-        <v>9.271462469854736</v>
+        <v>9.271462469854738</v>
       </c>
       <c r="J27" t="n">
         <v>25.44160166409438</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262954</v>
       </c>
       <c r="L27" t="n">
         <v>58.46926746116672</v>
@@ -33035,7 +33035,7 @@
         <v>68.23087731000102</v>
       </c>
       <c r="N27" t="n">
-        <v>70.03674560508483</v>
+        <v>70.03674560508485</v>
       </c>
       <c r="O27" t="n">
         <v>64.06993943977196</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2257601595457997</v>
+        <v>0.2257601595457998</v>
       </c>
       <c r="H28" t="n">
         <v>2.007213054870839</v>
       </c>
       <c r="I28" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068235</v>
       </c>
       <c r="J28" t="n">
         <v>15.96124327988804</v>
       </c>
       <c r="K28" t="n">
-        <v>26.22922580904836</v>
+        <v>26.22922580904837</v>
       </c>
       <c r="L28" t="n">
         <v>33.56437862920009</v>
@@ -33114,10 +33114,10 @@
         <v>35.3889311913475</v>
       </c>
       <c r="N28" t="n">
-        <v>34.54746150576772</v>
+        <v>34.54746150576773</v>
       </c>
       <c r="O28" t="n">
-        <v>31.91017236925541</v>
+        <v>31.91017236925542</v>
       </c>
       <c r="P28" t="n">
         <v>27.30466511452108</v>
@@ -33175,7 +33175,7 @@
         <v>0.5032935489189136</v>
       </c>
       <c r="H29" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865827</v>
       </c>
       <c r="I29" t="n">
         <v>19.40322454469644</v>
@@ -33193,13 +33193,13 @@
         <v>88.37394337160826</v>
       </c>
       <c r="N29" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747415</v>
       </c>
       <c r="O29" t="n">
         <v>84.79930094041168</v>
       </c>
       <c r="P29" t="n">
-        <v>72.37424145147598</v>
+        <v>72.374241451476</v>
       </c>
       <c r="Q29" t="n">
         <v>54.35004123081738</v>
@@ -33214,7 +33214,7 @@
         <v>2.203167510392546</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04026348391351308</v>
+        <v>0.04026348391351309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,16 +33254,16 @@
         <v>0.2692857889333605</v>
       </c>
       <c r="H30" t="n">
-        <v>2.600733803645876</v>
+        <v>2.600733803645877</v>
       </c>
       <c r="I30" t="n">
-        <v>9.271462469854736</v>
+        <v>9.271462469854738</v>
       </c>
       <c r="J30" t="n">
         <v>25.44160166409438</v>
       </c>
       <c r="K30" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262954</v>
       </c>
       <c r="L30" t="n">
         <v>58.46926746116672</v>
@@ -33272,7 +33272,7 @@
         <v>68.23087731000102</v>
       </c>
       <c r="N30" t="n">
-        <v>70.03674560508483</v>
+        <v>70.03674560508485</v>
       </c>
       <c r="O30" t="n">
         <v>64.06993943977196</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2257601595457997</v>
+        <v>0.2257601595457998</v>
       </c>
       <c r="H31" t="n">
         <v>2.007213054870839</v>
       </c>
       <c r="I31" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068235</v>
       </c>
       <c r="J31" t="n">
         <v>15.96124327988804</v>
       </c>
       <c r="K31" t="n">
-        <v>26.22922580904836</v>
+        <v>26.22922580904837</v>
       </c>
       <c r="L31" t="n">
         <v>33.56437862920009</v>
@@ -33351,10 +33351,10 @@
         <v>35.3889311913475</v>
       </c>
       <c r="N31" t="n">
-        <v>34.54746150576772</v>
+        <v>34.54746150576773</v>
       </c>
       <c r="O31" t="n">
-        <v>31.91017236925541</v>
+        <v>31.91017236925542</v>
       </c>
       <c r="P31" t="n">
         <v>27.30466511452108</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189133</v>
       </c>
       <c r="H32" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865823</v>
       </c>
       <c r="I32" t="n">
-        <v>19.40322454469644</v>
+        <v>19.40322454469642</v>
       </c>
       <c r="J32" t="n">
-        <v>42.71641084755669</v>
+        <v>42.71641084755666</v>
       </c>
       <c r="K32" t="n">
-        <v>64.02082677329432</v>
+        <v>64.02082677329427</v>
       </c>
       <c r="L32" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102149</v>
       </c>
       <c r="M32" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160821</v>
       </c>
       <c r="N32" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747407</v>
       </c>
       <c r="O32" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041163</v>
       </c>
       <c r="P32" t="n">
-        <v>72.37424145147598</v>
+        <v>72.37424145147594</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081734</v>
       </c>
       <c r="R32" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227772</v>
       </c>
       <c r="S32" t="n">
-        <v>11.46880174598976</v>
+        <v>11.46880174598975</v>
       </c>
       <c r="T32" t="n">
-        <v>2.203167510392546</v>
+        <v>2.203167510392544</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04026348391351308</v>
+        <v>0.04026348391351306</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333603</v>
       </c>
       <c r="H33" t="n">
-        <v>2.600733803645876</v>
+        <v>2.600733803645875</v>
       </c>
       <c r="I33" t="n">
-        <v>9.271462469854736</v>
+        <v>9.271462469854731</v>
       </c>
       <c r="J33" t="n">
-        <v>25.44160166409438</v>
+        <v>25.44160166409437</v>
       </c>
       <c r="K33" t="n">
-        <v>43.48374952262953</v>
+        <v>43.4837495226295</v>
       </c>
       <c r="L33" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116668</v>
       </c>
       <c r="M33" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000098</v>
       </c>
       <c r="N33" t="n">
-        <v>70.03674560508483</v>
+        <v>70.0367456050848</v>
       </c>
       <c r="O33" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977191</v>
       </c>
       <c r="P33" t="n">
-        <v>51.42177490605548</v>
+        <v>51.42177490605545</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.37409474173914</v>
+        <v>34.37409474173912</v>
       </c>
       <c r="R33" t="n">
-        <v>16.71934047430111</v>
+        <v>16.7193404743011</v>
       </c>
       <c r="S33" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635001</v>
       </c>
       <c r="T33" t="n">
         <v>1.085410701884904</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0177161703245632</v>
+        <v>0.01771617032456319</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2257601595457997</v>
+        <v>0.2257601595457996</v>
       </c>
       <c r="H34" t="n">
-        <v>2.007213054870839</v>
+        <v>2.007213054870838</v>
       </c>
       <c r="I34" t="n">
-        <v>6.789223707068234</v>
+        <v>6.78922370706823</v>
       </c>
       <c r="J34" t="n">
-        <v>15.96124327988804</v>
+        <v>15.96124327988803</v>
       </c>
       <c r="K34" t="n">
-        <v>26.22922580904836</v>
+        <v>26.22922580904835</v>
       </c>
       <c r="L34" t="n">
-        <v>33.56437862920009</v>
+        <v>33.56437862920006</v>
       </c>
       <c r="M34" t="n">
-        <v>35.3889311913475</v>
+        <v>35.38893119134747</v>
       </c>
       <c r="N34" t="n">
-        <v>34.54746150576772</v>
+        <v>34.5474615057677</v>
       </c>
       <c r="O34" t="n">
-        <v>31.91017236925541</v>
+        <v>31.9101723692554</v>
       </c>
       <c r="P34" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452106</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.90433481433056</v>
+        <v>18.90433481433055</v>
       </c>
       <c r="R34" t="n">
-        <v>10.15099771921387</v>
+        <v>10.15099771921386</v>
       </c>
       <c r="S34" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357252</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865981</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01231419052068</v>
+        <v>0.01231419052067999</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189135</v>
       </c>
       <c r="H35" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865825</v>
       </c>
       <c r="I35" t="n">
         <v>19.40322454469644</v>
       </c>
       <c r="J35" t="n">
-        <v>42.71641084755669</v>
+        <v>42.71641084755668</v>
       </c>
       <c r="K35" t="n">
-        <v>64.02082677329432</v>
+        <v>64.0208267732943</v>
       </c>
       <c r="L35" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102152</v>
       </c>
       <c r="M35" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160825</v>
       </c>
       <c r="N35" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747412</v>
       </c>
       <c r="O35" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041167</v>
       </c>
       <c r="P35" t="n">
         <v>72.37424145147598</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081737</v>
       </c>
       <c r="R35" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227773</v>
       </c>
       <c r="S35" t="n">
-        <v>11.46880174598976</v>
+        <v>11.46880174598975</v>
       </c>
       <c r="T35" t="n">
-        <v>2.203167510392546</v>
+        <v>2.203167510392545</v>
       </c>
       <c r="U35" t="n">
         <v>0.04026348391351308</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333604</v>
       </c>
       <c r="H36" t="n">
         <v>2.600733803645876</v>
@@ -33737,19 +33737,19 @@
         <v>25.44160166409438</v>
       </c>
       <c r="K36" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262952</v>
       </c>
       <c r="L36" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116671</v>
       </c>
       <c r="M36" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000101</v>
       </c>
       <c r="N36" t="n">
         <v>70.03674560508483</v>
       </c>
       <c r="O36" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977194</v>
       </c>
       <c r="P36" t="n">
         <v>51.42177490605548</v>
@@ -33761,13 +33761,13 @@
         <v>16.71934047430111</v>
       </c>
       <c r="S36" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635003</v>
       </c>
       <c r="T36" t="n">
         <v>1.085410701884904</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0177161703245632</v>
+        <v>0.01771617032456319</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>2.007213054870839</v>
       </c>
       <c r="I37" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068233</v>
       </c>
       <c r="J37" t="n">
         <v>15.96124327988804</v>
@@ -33819,10 +33819,10 @@
         <v>26.22922580904836</v>
       </c>
       <c r="L37" t="n">
-        <v>33.56437862920009</v>
+        <v>33.56437862920008</v>
       </c>
       <c r="M37" t="n">
-        <v>35.3889311913475</v>
+        <v>35.38893119134749</v>
       </c>
       <c r="N37" t="n">
         <v>34.54746150576772</v>
@@ -33831,19 +33831,19 @@
         <v>31.91017236925541</v>
       </c>
       <c r="P37" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452107</v>
       </c>
       <c r="Q37" t="n">
         <v>18.90433481433056</v>
       </c>
       <c r="R37" t="n">
-        <v>10.15099771921387</v>
+        <v>10.15099771921386</v>
       </c>
       <c r="S37" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357253</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865985</v>
       </c>
       <c r="U37" t="n">
         <v>0.01231419052068</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189135</v>
       </c>
       <c r="H38" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865825</v>
       </c>
       <c r="I38" t="n">
         <v>19.40322454469644</v>
       </c>
       <c r="J38" t="n">
-        <v>42.71641084755669</v>
+        <v>42.71641084755668</v>
       </c>
       <c r="K38" t="n">
-        <v>64.02082677329432</v>
+        <v>64.0208267732943</v>
       </c>
       <c r="L38" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102152</v>
       </c>
       <c r="M38" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160825</v>
       </c>
       <c r="N38" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747412</v>
       </c>
       <c r="O38" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041167</v>
       </c>
       <c r="P38" t="n">
         <v>72.37424145147598</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081737</v>
       </c>
       <c r="R38" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227773</v>
       </c>
       <c r="S38" t="n">
-        <v>11.46880174598976</v>
+        <v>11.46880174598975</v>
       </c>
       <c r="T38" t="n">
-        <v>2.203167510392546</v>
+        <v>2.203167510392545</v>
       </c>
       <c r="U38" t="n">
         <v>0.04026348391351308</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333604</v>
       </c>
       <c r="H39" t="n">
         <v>2.600733803645876</v>
@@ -33974,19 +33974,19 @@
         <v>25.44160166409438</v>
       </c>
       <c r="K39" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262952</v>
       </c>
       <c r="L39" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116671</v>
       </c>
       <c r="M39" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000101</v>
       </c>
       <c r="N39" t="n">
         <v>70.03674560508483</v>
       </c>
       <c r="O39" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977194</v>
       </c>
       <c r="P39" t="n">
         <v>51.42177490605548</v>
@@ -33998,13 +33998,13 @@
         <v>16.71934047430111</v>
       </c>
       <c r="S39" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635003</v>
       </c>
       <c r="T39" t="n">
         <v>1.085410701884904</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0177161703245632</v>
+        <v>0.01771617032456319</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>2.007213054870839</v>
       </c>
       <c r="I40" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068233</v>
       </c>
       <c r="J40" t="n">
         <v>15.96124327988804</v>
@@ -34056,10 +34056,10 @@
         <v>26.22922580904836</v>
       </c>
       <c r="L40" t="n">
-        <v>33.56437862920009</v>
+        <v>33.56437862920008</v>
       </c>
       <c r="M40" t="n">
-        <v>35.3889311913475</v>
+        <v>35.38893119134749</v>
       </c>
       <c r="N40" t="n">
         <v>34.54746150576772</v>
@@ -34068,19 +34068,19 @@
         <v>31.91017236925541</v>
       </c>
       <c r="P40" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452107</v>
       </c>
       <c r="Q40" t="n">
         <v>18.90433481433056</v>
       </c>
       <c r="R40" t="n">
-        <v>10.15099771921387</v>
+        <v>10.15099771921386</v>
       </c>
       <c r="S40" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357253</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865985</v>
       </c>
       <c r="U40" t="n">
         <v>0.01231419052068</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189135</v>
       </c>
       <c r="H41" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865825</v>
       </c>
       <c r="I41" t="n">
         <v>19.40322454469644</v>
       </c>
       <c r="J41" t="n">
-        <v>42.71641084755669</v>
+        <v>42.71641084755668</v>
       </c>
       <c r="K41" t="n">
-        <v>64.02082677329432</v>
+        <v>64.0208267732943</v>
       </c>
       <c r="L41" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102152</v>
       </c>
       <c r="M41" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160825</v>
       </c>
       <c r="N41" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747412</v>
       </c>
       <c r="O41" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041167</v>
       </c>
       <c r="P41" t="n">
         <v>72.37424145147598</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081737</v>
       </c>
       <c r="R41" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227773</v>
       </c>
       <c r="S41" t="n">
-        <v>11.46880174598976</v>
+        <v>11.46880174598975</v>
       </c>
       <c r="T41" t="n">
-        <v>2.203167510392546</v>
+        <v>2.203167510392545</v>
       </c>
       <c r="U41" t="n">
         <v>0.04026348391351308</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333604</v>
       </c>
       <c r="H42" t="n">
         <v>2.600733803645876</v>
@@ -34211,19 +34211,19 @@
         <v>25.44160166409438</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262952</v>
       </c>
       <c r="L42" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116671</v>
       </c>
       <c r="M42" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000101</v>
       </c>
       <c r="N42" t="n">
         <v>70.03674560508483</v>
       </c>
       <c r="O42" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977194</v>
       </c>
       <c r="P42" t="n">
         <v>51.42177490605548</v>
@@ -34235,13 +34235,13 @@
         <v>16.71934047430111</v>
       </c>
       <c r="S42" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635003</v>
       </c>
       <c r="T42" t="n">
         <v>1.085410701884904</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0177161703245632</v>
+        <v>0.01771617032456319</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>2.007213054870839</v>
       </c>
       <c r="I43" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068233</v>
       </c>
       <c r="J43" t="n">
         <v>15.96124327988804</v>
@@ -34293,10 +34293,10 @@
         <v>26.22922580904836</v>
       </c>
       <c r="L43" t="n">
-        <v>33.56437862920009</v>
+        <v>33.56437862920008</v>
       </c>
       <c r="M43" t="n">
-        <v>35.3889311913475</v>
+        <v>35.38893119134749</v>
       </c>
       <c r="N43" t="n">
         <v>34.54746150576772</v>
@@ -34305,19 +34305,19 @@
         <v>31.91017236925541</v>
       </c>
       <c r="P43" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452107</v>
       </c>
       <c r="Q43" t="n">
         <v>18.90433481433056</v>
       </c>
       <c r="R43" t="n">
-        <v>10.15099771921387</v>
+        <v>10.15099771921386</v>
       </c>
       <c r="S43" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357253</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865985</v>
       </c>
       <c r="U43" t="n">
         <v>0.01231419052068</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5032935489189136</v>
+        <v>0.5032935489189135</v>
       </c>
       <c r="H44" t="n">
-        <v>5.154355057865826</v>
+        <v>5.154355057865825</v>
       </c>
       <c r="I44" t="n">
         <v>19.40322454469644</v>
       </c>
       <c r="J44" t="n">
-        <v>42.71641084755669</v>
+        <v>42.71641084755668</v>
       </c>
       <c r="K44" t="n">
-        <v>64.02082677329432</v>
+        <v>64.0208267732943</v>
       </c>
       <c r="L44" t="n">
-        <v>79.42349672102154</v>
+        <v>79.42349672102152</v>
       </c>
       <c r="M44" t="n">
-        <v>88.37394337160826</v>
+        <v>88.37394337160825</v>
       </c>
       <c r="N44" t="n">
-        <v>89.80392616747413</v>
+        <v>89.80392616747412</v>
       </c>
       <c r="O44" t="n">
-        <v>84.79930094041168</v>
+        <v>84.79930094041167</v>
       </c>
       <c r="P44" t="n">
         <v>72.37424145147598</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.35004123081738</v>
+        <v>54.35004123081737</v>
       </c>
       <c r="R44" t="n">
-        <v>31.61501339227774</v>
+        <v>31.61501339227773</v>
       </c>
       <c r="S44" t="n">
-        <v>11.46880174598976</v>
+        <v>11.46880174598975</v>
       </c>
       <c r="T44" t="n">
-        <v>2.203167510392546</v>
+        <v>2.203167510392545</v>
       </c>
       <c r="U44" t="n">
         <v>0.04026348391351308</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2692857889333605</v>
+        <v>0.2692857889333604</v>
       </c>
       <c r="H45" t="n">
         <v>2.600733803645876</v>
@@ -34448,19 +34448,19 @@
         <v>25.44160166409438</v>
       </c>
       <c r="K45" t="n">
-        <v>43.48374952262953</v>
+        <v>43.48374952262952</v>
       </c>
       <c r="L45" t="n">
-        <v>58.46926746116672</v>
+        <v>58.46926746116671</v>
       </c>
       <c r="M45" t="n">
-        <v>68.23087731000102</v>
+        <v>68.23087731000101</v>
       </c>
       <c r="N45" t="n">
         <v>70.03674560508483</v>
       </c>
       <c r="O45" t="n">
-        <v>64.06993943977196</v>
+        <v>64.06993943977194</v>
       </c>
       <c r="P45" t="n">
         <v>51.42177490605548</v>
@@ -34472,13 +34472,13 @@
         <v>16.71934047430111</v>
       </c>
       <c r="S45" t="n">
-        <v>5.001865421635004</v>
+        <v>5.001865421635003</v>
       </c>
       <c r="T45" t="n">
         <v>1.085410701884904</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0177161703245632</v>
+        <v>0.01771617032456319</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>2.007213054870839</v>
       </c>
       <c r="I46" t="n">
-        <v>6.789223707068234</v>
+        <v>6.789223707068233</v>
       </c>
       <c r="J46" t="n">
         <v>15.96124327988804</v>
@@ -34530,10 +34530,10 @@
         <v>26.22922580904836</v>
       </c>
       <c r="L46" t="n">
-        <v>33.56437862920009</v>
+        <v>33.56437862920008</v>
       </c>
       <c r="M46" t="n">
-        <v>35.3889311913475</v>
+        <v>35.38893119134749</v>
       </c>
       <c r="N46" t="n">
         <v>34.54746150576772</v>
@@ -34542,19 +34542,19 @@
         <v>31.91017236925541</v>
       </c>
       <c r="P46" t="n">
-        <v>27.30466511452108</v>
+        <v>27.30466511452107</v>
       </c>
       <c r="Q46" t="n">
         <v>18.90433481433056</v>
       </c>
       <c r="R46" t="n">
-        <v>10.15099771921387</v>
+        <v>10.15099771921386</v>
       </c>
       <c r="S46" t="n">
-        <v>3.934383871357254</v>
+        <v>3.934383871357253</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9646115907865986</v>
+        <v>0.9646115907865985</v>
       </c>
       <c r="U46" t="n">
         <v>0.01231419052068</v>
@@ -34702,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>10.19503020354938</v>
       </c>
       <c r="M2" t="n">
-        <v>10.19503020354938</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>14.85476540383092</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>14.254572862262</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>14.85476540383092</v>
@@ -34860,10 +34860,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="M4" t="n">
         <v>8.132550963578161</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14.85476540383092</v>
       </c>
       <c r="N4" t="n">
         <v>14.85476540383092</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.05713371299427</v>
+        <v>42.05713371299429</v>
       </c>
       <c r="K11" t="n">
         <v>186.5444510784496</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>124.6949513984004</v>
       </c>
       <c r="L12" t="n">
-        <v>124.6949513984004</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>413.9834605360331</v>
@@ -35501,13 +35501,13 @@
         <v>419.5518892970634</v>
       </c>
       <c r="O12" t="n">
-        <v>334.6554131542373</v>
+        <v>334.6554131542374</v>
       </c>
       <c r="P12" t="n">
         <v>251.9980070626181</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.3722442531512</v>
+        <v>116.3722442531513</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.02794746329306</v>
+        <v>49.02794746329311</v>
       </c>
       <c r="K13" t="n">
         <v>133.360365202399</v>
       </c>
       <c r="L13" t="n">
-        <v>192.9310579693933</v>
+        <v>192.9310579693934</v>
       </c>
       <c r="M13" t="n">
-        <v>207.49188829944</v>
+        <v>207.4918882994401</v>
       </c>
       <c r="N13" t="n">
         <v>210.6500302815896</v>
       </c>
       <c r="O13" t="n">
-        <v>188.3839295104104</v>
+        <v>188.3839295104105</v>
       </c>
       <c r="P13" t="n">
         <v>155.3322361243889</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.04918404966634</v>
+        <v>61.04918404966639</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.02794746329312</v>
+        <v>49.02794746329307</v>
       </c>
       <c r="K16" t="n">
         <v>133.360365202399</v>
@@ -35811,19 +35811,19 @@
         <v>192.9310579693934</v>
       </c>
       <c r="M16" t="n">
-        <v>207.4918882994401</v>
+        <v>207.49188829944</v>
       </c>
       <c r="N16" t="n">
         <v>210.6500302815896</v>
       </c>
       <c r="O16" t="n">
-        <v>188.3839295104105</v>
+        <v>188.3839295104104</v>
       </c>
       <c r="P16" t="n">
         <v>155.3322361243889</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.0491840496664</v>
+        <v>61.04918404966636</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>42.05713371299429</v>
+        <v>42.05713371299427</v>
       </c>
       <c r="K17" t="n">
         <v>186.5444510784496</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>124.6949513984004</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>309.0527062913869</v>
       </c>
       <c r="M18" t="n">
-        <v>413.9834605360331</v>
+        <v>229.6257056430466</v>
       </c>
       <c r="N18" t="n">
         <v>419.5518892970634</v>
       </c>
       <c r="O18" t="n">
-        <v>334.6554131542374</v>
+        <v>334.6554131542373</v>
       </c>
       <c r="P18" t="n">
         <v>251.9980070626181</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.3722442531513</v>
+        <v>116.3722442531512</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>85.58633918825606</v>
       </c>
       <c r="N19" t="n">
-        <v>88.74448117040563</v>
+        <v>88.74448117040562</v>
       </c>
       <c r="O19" t="n">
         <v>66.47838039922648</v>
       </c>
       <c r="P19" t="n">
-        <v>33.42668701320493</v>
+        <v>33.42668701320492</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.90959241811953</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>184.1321930157113</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>124.6949513984004</v>
       </c>
       <c r="M21" t="n">
-        <v>321.6366265006026</v>
+        <v>413.9834605360331</v>
       </c>
       <c r="N21" t="n">
         <v>419.5518892970634</v>
@@ -36367,13 +36367,13 @@
         <v>331.2804408075632</v>
       </c>
       <c r="N23" t="n">
-        <v>320.9669905492615</v>
+        <v>320.9669905492628</v>
       </c>
       <c r="O23" t="n">
         <v>256.4857333175223</v>
       </c>
       <c r="P23" t="n">
-        <v>181.5927270884302</v>
+        <v>181.5927270884301</v>
       </c>
       <c r="Q23" t="n">
         <v>58.40958388953</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>309.0527062913869</v>
+        <v>124.6949513984013</v>
       </c>
       <c r="M24" t="n">
-        <v>229.6257056430466</v>
+        <v>413.9834605360331</v>
       </c>
       <c r="N24" t="n">
-        <v>419.5518892970634</v>
+        <v>419.5518892970637</v>
       </c>
       <c r="O24" t="n">
         <v>334.6554131542373</v>
@@ -36598,13 +36598,13 @@
         <v>329.8611601469732</v>
       </c>
       <c r="L26" t="n">
-        <v>427.235614326276</v>
+        <v>427.2356143262759</v>
       </c>
       <c r="M26" t="n">
-        <v>474.5971498760868</v>
+        <v>474.5971498760867</v>
       </c>
       <c r="N26" t="n">
-        <v>464.2836996177851</v>
+        <v>464.283699617785</v>
       </c>
       <c r="O26" t="n">
         <v>399.8024423860459</v>
@@ -36616,7 +36616,7 @@
         <v>201.7262929580536</v>
       </c>
       <c r="R26" t="n">
-        <v>33.08089975992428</v>
+        <v>33.08089975992425</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>70.43910742063268</v>
       </c>
       <c r="K28" t="n">
-        <v>11.45481609121501</v>
+        <v>11.45481609121502</v>
       </c>
       <c r="L28" t="n">
-        <v>71.02550885820938</v>
+        <v>214.342217926733</v>
       </c>
       <c r="M28" t="n">
-        <v>226.7706175981527</v>
+        <v>156.3315101775208</v>
       </c>
       <c r="N28" t="n">
-        <v>88.74448117040561</v>
+        <v>88.74448117040562</v>
       </c>
       <c r="O28" t="n">
-        <v>209.7950894677501</v>
+        <v>66.47838039922648</v>
       </c>
       <c r="P28" t="n">
         <v>176.7433960817285</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.46034400700599</v>
+        <v>82.46034400700597</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>329.8611601469732</v>
       </c>
       <c r="L29" t="n">
-        <v>427.2356143262759</v>
+        <v>427.235614326276</v>
       </c>
       <c r="M29" t="n">
-        <v>474.5971498760867</v>
+        <v>474.5971498760868</v>
       </c>
       <c r="N29" t="n">
-        <v>464.283699617785</v>
+        <v>464.2836996177851</v>
       </c>
       <c r="O29" t="n">
         <v>399.8024423860459</v>
@@ -36853,7 +36853,7 @@
         <v>201.7262929580536</v>
       </c>
       <c r="R29" t="n">
-        <v>33.08089975992425</v>
+        <v>33.08089975992428</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>70.43910742063271</v>
       </c>
       <c r="K31" t="n">
-        <v>11.45481609121501</v>
+        <v>154.7715251597386</v>
       </c>
       <c r="L31" t="n">
-        <v>214.342217926733</v>
+        <v>80.9143147859558</v>
       </c>
       <c r="M31" t="n">
-        <v>228.9030482567796</v>
+        <v>228.9030482567797</v>
       </c>
       <c r="N31" t="n">
-        <v>169.0723945187855</v>
+        <v>232.0611902389292</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47838039922647</v>
+        <v>66.47838039922648</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7433960817285</v>
+        <v>33.42668701320492</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5524708038739</v>
+        <v>195.5524708038738</v>
       </c>
       <c r="K32" t="n">
-        <v>186.5444510784496</v>
+        <v>246.1480420465172</v>
       </c>
       <c r="L32" t="n">
         <v>437.4142423486319</v>
       </c>
       <c r="M32" t="n">
-        <v>484.7757778984428</v>
+        <v>331.2804408075631</v>
       </c>
       <c r="N32" t="n">
         <v>474.462327640141</v>
       </c>
       <c r="O32" t="n">
-        <v>409.9810704084019</v>
+        <v>409.9810704084018</v>
       </c>
       <c r="P32" t="n">
-        <v>241.1963180564969</v>
+        <v>335.0880641793096</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.9049209804096</v>
+        <v>211.9049209804095</v>
       </c>
       <c r="R32" t="n">
-        <v>43.25952778228025</v>
+        <v>43.2595277822802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>32.90959241811953</v>
+        <v>32.90959241811952</v>
       </c>
       <c r="K33" t="n">
         <v>184.1321930157113</v>
@@ -37154,10 +37154,10 @@
         <v>309.0527062913869</v>
       </c>
       <c r="M33" t="n">
-        <v>413.9834605360331</v>
+        <v>413.983460536033</v>
       </c>
       <c r="N33" t="n">
-        <v>440.4946456411305</v>
+        <v>440.4946456411304</v>
       </c>
       <c r="O33" t="n">
         <v>334.6554131542373</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.489770576360229</v>
+        <v>4.4897705763602</v>
       </c>
       <c r="E34" t="n">
-        <v>6.520712917680413</v>
+        <v>6.520712917680385</v>
       </c>
       <c r="F34" t="n">
-        <v>7.336315681075092</v>
+        <v>7.336315681075064</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>11.45481609121501</v>
+        <v>55.60848890808896</v>
       </c>
       <c r="L34" t="n">
-        <v>71.02550885820938</v>
+        <v>224.5208459490889</v>
       </c>
       <c r="M34" t="n">
-        <v>85.58633918825606</v>
+        <v>85.58633918825603</v>
       </c>
       <c r="N34" t="n">
-        <v>88.74448117040561</v>
+        <v>242.2398182612851</v>
       </c>
       <c r="O34" t="n">
-        <v>219.9737174901061</v>
+        <v>66.47838039922645</v>
       </c>
       <c r="P34" t="n">
-        <v>186.9220241040845</v>
+        <v>33.4266870132049</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.15367281687322</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>235.3522844313138</v>
+        <v>42.05713371299426</v>
       </c>
       <c r="K35" t="n">
-        <v>379.8396017967691</v>
+        <v>186.5444510784496</v>
       </c>
       <c r="L35" t="n">
-        <v>283.9189052577524</v>
+        <v>477.214055976072</v>
       </c>
       <c r="M35" t="n">
-        <v>331.2804408075632</v>
+        <v>524.5755915258827</v>
       </c>
       <c r="N35" t="n">
         <v>320.9669905492615</v>
@@ -37324,10 +37324,10 @@
         <v>181.5927270884301</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.40958388952999</v>
+        <v>94.16157912377517</v>
       </c>
       <c r="R35" t="n">
-        <v>35.75199523424585</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>11.45481609121501</v>
       </c>
       <c r="L37" t="n">
-        <v>71.02550885820938</v>
+        <v>84.35596527096942</v>
       </c>
       <c r="M37" t="n">
         <v>85.58633918825606</v>
@@ -37482,7 +37482,7 @@
         <v>33.42668701320491</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.33045641276019</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.474067394891968</v>
       </c>
       <c r="J38" t="n">
-        <v>42.05713371299427</v>
+        <v>42.05713371299426</v>
       </c>
       <c r="K38" t="n">
         <v>186.5444510784496</v>
       </c>
       <c r="L38" t="n">
-        <v>283.9189052577524</v>
+        <v>477.214055976072</v>
       </c>
       <c r="M38" t="n">
-        <v>331.2804408075632</v>
+        <v>359.5583686469163</v>
       </c>
       <c r="N38" t="n">
         <v>320.9669905492615</v>
       </c>
       <c r="O38" t="n">
-        <v>449.7808840358418</v>
+        <v>256.4857333175223</v>
       </c>
       <c r="P38" t="n">
-        <v>217.3447223226754</v>
+        <v>181.5927270884301</v>
       </c>
       <c r="Q38" t="n">
         <v>251.7047346078495</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>32.90959241811914</v>
+        <v>32.90959241811953</v>
       </c>
       <c r="K39" t="n">
-        <v>184.1321930157113</v>
+        <v>184.1321930157109</v>
       </c>
       <c r="L39" t="n">
         <v>309.0527062913869</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>13.33045641276004</v>
       </c>
       <c r="K40" t="n">
         <v>11.45481609121501</v>
       </c>
       <c r="L40" t="n">
-        <v>71.02550885820938</v>
+        <v>71.02550885820936</v>
       </c>
       <c r="M40" t="n">
         <v>85.58633918825606</v>
@@ -37716,7 +37716,7 @@
         <v>66.47838039922647</v>
       </c>
       <c r="P40" t="n">
-        <v>46.75714342596485</v>
+        <v>33.42668701320491</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.05713371299427</v>
+        <v>42.05713371299426</v>
       </c>
       <c r="K41" t="n">
         <v>186.5444510784496</v>
       </c>
       <c r="L41" t="n">
-        <v>319.6709004919978</v>
+        <v>283.9189052577524</v>
       </c>
       <c r="M41" t="n">
-        <v>524.5755915258827</v>
+        <v>331.2804408075632</v>
       </c>
       <c r="N41" t="n">
-        <v>514.262141267581</v>
+        <v>320.9669905492615</v>
       </c>
       <c r="O41" t="n">
-        <v>256.4857333175223</v>
+        <v>449.7808840358418</v>
       </c>
       <c r="P41" t="n">
-        <v>181.5927270884301</v>
+        <v>217.3447223226754</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.40958388952999</v>
+        <v>251.7047346078495</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>32.90959241811953</v>
+        <v>32.90959241811914</v>
       </c>
       <c r="K42" t="n">
         <v>184.1321930157113</v>
@@ -37941,10 +37941,10 @@
         <v>11.45481609121501</v>
       </c>
       <c r="L43" t="n">
-        <v>71.02550885820938</v>
+        <v>71.02550885820936</v>
       </c>
       <c r="M43" t="n">
-        <v>85.58633918825606</v>
+        <v>98.9167956010161</v>
       </c>
       <c r="N43" t="n">
         <v>88.74448117040561</v>
@@ -37956,7 +37956,7 @@
         <v>33.42668701320491</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.33045641275996</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.474067394891939</v>
       </c>
       <c r="J44" t="n">
-        <v>42.05713371299427</v>
+        <v>235.3522844313138</v>
       </c>
       <c r="K44" t="n">
-        <v>186.5444510784496</v>
+        <v>325.0581882264022</v>
       </c>
       <c r="L44" t="n">
         <v>283.9189052577524</v>
@@ -38026,19 +38026,19 @@
         <v>331.2804408075632</v>
       </c>
       <c r="N44" t="n">
-        <v>514.262141267581</v>
+        <v>320.9669905492615</v>
       </c>
       <c r="O44" t="n">
         <v>256.4857333175223</v>
       </c>
       <c r="P44" t="n">
-        <v>217.3447223226754</v>
+        <v>181.5927270884301</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.7047346078495</v>
+        <v>58.40958388952998</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.05934140972018</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>32.90959241811953</v>
       </c>
       <c r="K45" t="n">
-        <v>184.1321930157109</v>
+        <v>184.1321930157113</v>
       </c>
       <c r="L45" t="n">
         <v>309.0527062913869</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13.33045641276027</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>11.45481609121501</v>
       </c>
       <c r="L46" t="n">
-        <v>71.02550885820938</v>
+        <v>71.02550885820936</v>
       </c>
       <c r="M46" t="n">
         <v>85.58633918825606</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.33045641275996</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
